--- a/Investment_candidates_SpineOpt_Nordic.xlsx
+++ b/Investment_candidates_SpineOpt_Nordic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
           <t>flow</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>cost_per_km</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -622,6 +632,12 @@
       <c r="U2" t="n">
         <v>106.1630354518851</v>
       </c>
+      <c r="V2" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W2" t="n">
+        <v>11030589.65084959</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -705,6 +721,12 @@
       <c r="U3" t="n">
         <v>29.70884865713508</v>
       </c>
+      <c r="V3" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4868133.803096537</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -788,6 +810,12 @@
       <c r="U4" t="n">
         <v>-12.70288629811662</v>
       </c>
+      <c r="V4" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3395071.484857312</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -871,6 +899,12 @@
       <c r="U5" t="n">
         <v>-963.1730657421407</v>
       </c>
+      <c r="V5" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W5" t="n">
+        <v>16435269.93465853</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -954,6 +988,12 @@
       <c r="U6" t="n">
         <v>-1063.181652926213</v>
       </c>
+      <c r="V6" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W6" t="n">
+        <v>36769874.1511443</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1037,6 +1077,12 @@
       <c r="U7" t="n">
         <v>-831.1028658419265</v>
       </c>
+      <c r="V7" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W7" t="n">
+        <v>31466917.28682851</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1120,6 +1166,12 @@
       <c r="U8" t="n">
         <v>74.60696510951306</v>
       </c>
+      <c r="V8" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2897092.836549347</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1203,6 +1255,12 @@
       <c r="U9" t="n">
         <v>260.8599304657336</v>
       </c>
+      <c r="V9" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5961474.427732594</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1286,6 +1344,12 @@
       <c r="U10" t="n">
         <v>-163.2887644256012</v>
       </c>
+      <c r="V10" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W10" t="n">
+        <v>36767628.55323639</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1369,6 +1433,12 @@
       <c r="U11" t="n">
         <v>-83.23527773982313</v>
       </c>
+      <c r="V11" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11115570.39298972</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1452,6 +1522,12 @@
       <c r="U12" t="n">
         <v>-179.7415370750774</v>
       </c>
+      <c r="V12" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W12" t="n">
+        <v>26461983.31442729</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1535,6 +1611,12 @@
       <c r="U13" t="n">
         <v>-47.28375582966726</v>
       </c>
+      <c r="V13" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3964105.397733054</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1618,6 +1700,12 @@
       <c r="U14" t="n">
         <v>-115.2495438989937</v>
       </c>
+      <c r="V14" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8243713.85068007</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1701,6 +1789,12 @@
       <c r="U15" t="n">
         <v>-39.85394524867414</v>
       </c>
+      <c r="V15" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4245235.755133267</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1784,6 +1878,12 @@
       <c r="U16" t="n">
         <v>39.71329774900756</v>
       </c>
+      <c r="V16" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6031256.443110087</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1867,6 +1967,12 @@
       <c r="U17" t="n">
         <v>-48.77146614725714</v>
       </c>
+      <c r="V17" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2777557.945916188</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1950,6 +2056,12 @@
       <c r="U18" t="n">
         <v>88.53926818651755</v>
       </c>
+      <c r="V18" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2074025.009394511</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2033,6 +2145,12 @@
       <c r="U19" t="n">
         <v>-23.67043039817598</v>
       </c>
+      <c r="V19" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4562061.562676349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2116,6 +2234,12 @@
       <c r="U20" t="n">
         <v>-1025.740243569893</v>
       </c>
+      <c r="V20" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W20" t="n">
+        <v>81093306.22637244</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2199,37 +2323,43 @@
       <c r="U21" t="n">
         <v>1071.375886201309</v>
       </c>
+      <c r="V21" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W21" t="n">
+        <v>69248664.70157279</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>414_new</t>
+          <t>2332_new</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5518</v>
+        <v>6114</v>
       </c>
       <c r="E22" t="n">
-        <v>5519</v>
+        <v>6117</v>
       </c>
       <c r="F22" t="n">
-        <v>15331.9836223125</v>
+        <v>31194.361998404</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2239,22 +2369,22 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[55.7347042221124, 55.69926, 55.6707140467901]</t>
+          <t>[57.5484901264549, 57.8160075598671]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[12.5267859076139, 12.43103, 12.3119669654935]</t>
+          <t>[12.5627338029899, 12.40781619701]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[344713.70902034 338556.72315062 330953.18866626]</t>
+          <t>[354144.92306006 346015.6439873 ]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>[6179324.06153594 6175599.56751879 6172707.60695796]</t>
+          <t>[6381062.38170511 6411174.85492902]</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2268,25 +2398,31 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>0.02648603690493609</v>
+        <v>0.005314274966487107</v>
       </c>
       <c r="R22" t="n">
-        <v>0.005279605177326012</v>
+        <v>0.0006480823129862327</v>
       </c>
       <c r="S22" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T22" t="n">
-        <v>1.469242396954233e-09</v>
+        <v>9.619786502074573e-11</v>
       </c>
       <c r="U22" t="n">
-        <v>-118.3619144709796</v>
+        <v>143.2438924101518</v>
+      </c>
+      <c r="V22" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W22" t="n">
+        <v>23555121.14555141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>11019_new</t>
+          <t>414_new</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2300,13 +2436,13 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>5518</v>
+      </c>
+      <c r="E23" t="n">
         <v>5519</v>
       </c>
-      <c r="E23" t="n">
-        <v>7263</v>
-      </c>
       <c r="F23" t="n">
-        <v>11339.1784046599</v>
+        <v>15331.9836223125</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2322,22 +2458,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[55.6715281415982, 55.677584, 55.6706409373104]</t>
+          <t>[55.7347042221124, 55.69926, 55.6707140467901]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[12.4906363083026, 12.43103, 12.3119986277998]</t>
+          <t>[12.5267859076139, 12.43103, 12.3119669654935]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[342190.03565843 338467.35504802 330954.86400333]</t>
+          <t>[344713.70902034 338556.72315062 330953.18866626]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>[6172377.13058321 6173188.09380369 6172699.39658607]</t>
+          <t>[6179324.06153594 6175599.56751879 6172707.60695796]</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2351,51 +2487,57 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>0.01958845672522171</v>
+        <v>0.02648603690493609</v>
       </c>
       <c r="R23" t="n">
-        <v>0.003904673164713187</v>
+        <v>0.005279605177326012</v>
       </c>
       <c r="S23" t="n">
         <v>150</v>
       </c>
       <c r="T23" t="n">
-        <v>1.986598990104266e-09</v>
+        <v>1.469242396954233e-09</v>
       </c>
       <c r="U23" t="n">
-        <v>193.0519267767272</v>
+        <v>-118.3619144709796</v>
+      </c>
+      <c r="V23" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4242908.221357238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2347_new</t>
+          <t>11019_new</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6130</v>
+        <v>5519</v>
       </c>
       <c r="E24" t="n">
-        <v>6131</v>
+        <v>7263</v>
       </c>
       <c r="F24" t="n">
-        <v>75742.9598377704</v>
+        <v>11339.1784046599</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2405,22 +2547,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[56.771313447993, 56.420738, 56.1595342131333]</t>
+          <t>[55.6715281415982, 55.677584, 55.6706409373104]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[12.9915039352593, 13.253632, 12.9846888603185]</t>
+          <t>[12.4906363083026, 12.43103, 12.3119986277998]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[377250.74390058 392275.54162189 374837.49533052]</t>
+          <t>[342190.03565843 338467.35504802 330954.86400333]</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>[6293730.05709564 6254276.11027725 6225664.16583268]</t>
+          <t>[6172377.13058321 6173188.09380369 6172699.39658607]</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2434,45 +2576,51 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>0.01290357903053429</v>
+        <v>0.01958845672522171</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001573607198845646</v>
+        <v>0.003904673164713187</v>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T24" t="n">
-        <v>3.961861315372491e-11</v>
+        <v>1.986598990104266e-09</v>
       </c>
       <c r="U24" t="n">
-        <v>-1080.438775119573</v>
+        <v>193.0519267767272</v>
+      </c>
+      <c r="V24" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3137956.213738208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2332_new</t>
+          <t>2347_new</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6114</v>
+        <v>6130</v>
       </c>
       <c r="E25" t="n">
-        <v>6117</v>
+        <v>6131</v>
       </c>
       <c r="F25" t="n">
-        <v>31194.361998404</v>
+        <v>75742.9598377704</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2488,22 +2636,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[57.5484901264549, 57.8160075598671]</t>
+          <t>[56.771313447993, 56.420738, 56.1595342131333]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[12.5627338029899, 12.40781619701]</t>
+          <t>[12.9915039352593, 13.253632, 12.9846888603185]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[354144.92306006 346015.6439873 ]</t>
+          <t>[377250.74390058 392275.54162189 374837.49533052]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>[6381062.38170511 6411174.85492902]</t>
+          <t>[6293730.05709564 6254276.11027725 6225664.16583268]</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2517,19 +2665,25 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>0.005314274966487107</v>
+        <v>0.01290357903053429</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0006480823129862327</v>
+        <v>0.001573607198845646</v>
       </c>
       <c r="S25" t="n">
         <v>1500</v>
       </c>
       <c r="T25" t="n">
-        <v>9.619786502074573e-11</v>
+        <v>3.961861315372491e-11</v>
       </c>
       <c r="U25" t="n">
-        <v>143.2438924101518</v>
+        <v>-1080.438775119573</v>
+      </c>
+      <c r="V25" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W25" t="n">
+        <v>57194136.39530755</v>
       </c>
     </row>
     <row r="26">
@@ -2614,6 +2768,12 @@
       <c r="U26" t="n">
         <v>1270.568348098349</v>
       </c>
+      <c r="V26" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W26" t="n">
+        <v>40843311.48783533</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2697,37 +2857,43 @@
       <c r="U27" t="n">
         <v>-238.6026352260856</v>
       </c>
+      <c r="V27" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W27" t="n">
+        <v>26196224.09669046</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>332_new</t>
+          <t>2327_new</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5516</v>
+        <v>6109</v>
       </c>
       <c r="E28" t="n">
-        <v>5519</v>
+        <v>6112</v>
       </c>
       <c r="F28" t="n">
-        <v>21074.1247993095</v>
+        <v>39579.655019531</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2737,22 +2903,22 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[55.6707816783335, 55.7957108549554]</t>
+          <t>[58.3042037692976, 58.038643, 57.9646152190049]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[12.3118896954608, 12.5639043045392]</t>
+          <t>[12.2992280125499, 12.337646, 12.2445121197593]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[330948.62227102 347282.48106235]</t>
+          <t>[341741.88047161 342824.78639525 336992.11870391]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>[6172715.31910511 6186028.87450047]</t>
+          <t>[6465753.44929783 6436111.42591541 6428094.49938715]</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2766,25 +2932,31 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>0.03640559897034067</v>
+        <v>0.006742794414684644</v>
       </c>
       <c r="R28" t="n">
-        <v>0.007256925205433218</v>
+        <v>0.0008222920017908103</v>
       </c>
       <c r="S28" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T28" t="n">
-        <v>1.068912734542008e-09</v>
+        <v>7.581751340303385e-11</v>
       </c>
       <c r="U28" t="n">
-        <v>-48.50309079795463</v>
+        <v>1217.449300528915</v>
+      </c>
+      <c r="V28" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W28" t="n">
+        <v>29886925.36593261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>258_new</t>
+          <t>332_new</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2798,13 +2970,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5508</v>
+        <v>5516</v>
       </c>
       <c r="E29" t="n">
-        <v>7951</v>
+        <v>5519</v>
       </c>
       <c r="F29" t="n">
-        <v>5492.027396112129</v>
+        <v>21074.1247993095</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2820,22 +2992,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[55.2937748465328, 55.255642, 55.2552510019235]</t>
+          <t>[55.6707816783335, 55.7957108549554]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[11.9006616063697, 11.847382, 11.8480685]</t>
+          <t>[12.3118896954608, 12.5639043045392]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[303224.79512303 299651.29327133 299692.93706649]</t>
+          <t>[330948.62227102 347282.48106235]</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>[6131860.19114832 6127770.68565896 6127725.22342573]</t>
+          <t>[6172715.31910511 6186028.87450047]</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2849,25 +3021,31 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>0.009487489934743749</v>
+        <v>0.03640559897034067</v>
       </c>
       <c r="R29" t="n">
-        <v>0.001891192750319186</v>
+        <v>0.007256925205433218</v>
       </c>
       <c r="S29" t="n">
         <v>150</v>
       </c>
       <c r="T29" t="n">
-        <v>4.101654770195822e-09</v>
+        <v>1.068912734542008e-09</v>
       </c>
       <c r="U29" t="n">
-        <v>-43.32214688985712</v>
+        <v>-48.50309079795463</v>
+      </c>
+      <c r="V29" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5831964.054460183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>289_new</t>
+          <t>258_new</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2881,16 +3059,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="E30" t="n">
-        <v>5522</v>
+        <v>7951</v>
       </c>
       <c r="F30" t="n">
-        <v>15954.0588199879</v>
+        <v>5492.027396112129</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>132</v>
@@ -2903,22 +3081,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[55.611713739192, 55.6132592609162]</t>
+          <t>[55.2937748465328, 55.255642, 55.2552510019235]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[12.1087556799727, 12.3619173200273]</t>
+          <t>[11.9006616063697, 11.847382, 11.8480685]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[317903.67652307 333850.56291834]</t>
+          <t>[303224.79512303 299651.29327133 299692.93706649]</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>[6166658.54373564 6166195.2502161 ]</t>
+          <t>[6131860.19114832 6127770.68565896 6127725.22342573]</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2932,19 +3110,25 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>0.02756067323700848</v>
+        <v>0.009487489934743749</v>
       </c>
       <c r="R30" t="n">
-        <v>0.005493818257331752</v>
+        <v>0.001891192750319186</v>
       </c>
       <c r="S30" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T30" t="n">
-        <v>1.411954200587969e-09</v>
+        <v>4.101654770195822e-09</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.8618538178771562</v>
+        <v>-43.32214688985712</v>
+      </c>
+      <c r="V30" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1519840.40453656</v>
       </c>
     </row>
     <row r="31">
@@ -3029,37 +3213,43 @@
       <c r="U31" t="n">
         <v>-7.393596874575081</v>
       </c>
+      <c r="V31" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W31" t="n">
+        <v>29560088.7865986</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2327_new</t>
+          <t>289_new</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6109</v>
+        <v>5509</v>
       </c>
       <c r="E32" t="n">
-        <v>6112</v>
+        <v>5522</v>
       </c>
       <c r="F32" t="n">
-        <v>39579.655019531</v>
+        <v>15954.0588199879</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3069,22 +3259,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[58.3042037692976, 58.038643, 57.9646152190049]</t>
+          <t>[55.611713739192, 55.6132592609162]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[12.2992280125499, 12.337646, 12.2445121197593]</t>
+          <t>[12.1087556799727, 12.3619173200273]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[341741.88047161 342824.78639525 336992.11870391]</t>
+          <t>[317903.67652307 333850.56291834]</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>[6465753.44929783 6436111.42591541 6428094.49938715]</t>
+          <t>[6166658.54373564 6166195.2502161 ]</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3098,19 +3288,25 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>0.006742794414684644</v>
+        <v>0.02756067323700848</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0008222920017908103</v>
+        <v>0.005493818257331752</v>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="T32" t="n">
-        <v>7.581751340303385e-11</v>
+        <v>1.411954200587969e-09</v>
       </c>
       <c r="U32" t="n">
-        <v>1217.449300528915</v>
+        <v>-0.8618538178771562</v>
+      </c>
+      <c r="V32" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4415058.67726291</v>
       </c>
     </row>
     <row r="33">
@@ -3195,6 +3391,12 @@
       <c r="U33" t="n">
         <v>739.4995480759335</v>
       </c>
+      <c r="V33" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10660430.06000103</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3278,37 +3480,43 @@
       <c r="U34" t="n">
         <v>751.1371729373252</v>
       </c>
+      <c r="V34" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15613544.73914344</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2350_new</t>
+          <t>1285_new</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5574</v>
+        <v>6751</v>
       </c>
       <c r="E35" t="n">
-        <v>6127</v>
+        <v>6756</v>
       </c>
       <c r="F35" t="n">
-        <v>90909.21952970581</v>
+        <v>33480.1053819907</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3318,22 +3526,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[56.325523233246, 55.85065, 55.86060682686]</t>
+          <t>[69.2440849345836, 69.4314179199206]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[14.7487923790329, 13.649139, 13.5809079617067]</t>
+          <t>[20.3772411431321, 21.0412158568679]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[484464.69343139 415428.03278656 411179.3943763 ]</t>
+          <t>[712438.08585843 736540.80078843]</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>[6242338.74450964 6190282.67597187 6191476.15526432]</t>
+          <t>[7690909.40673385 7714157.27828326]</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3347,51 +3555,57 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>0.01548730471212439</v>
+        <v>0.05783695890713498</v>
       </c>
       <c r="R35" t="n">
-        <v>0.001888695696600536</v>
+        <v>0.01152895424796428</v>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T35" t="n">
-        <v>3.300909457208777e-11</v>
+        <v>6.728294343848346e-10</v>
       </c>
       <c r="U35" t="n">
-        <v>-200.0094038356464</v>
+        <v>-102.9201188188249</v>
+      </c>
+      <c r="V35" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9265142.58536166</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>257_new</t>
+          <t>2350_new</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5496</v>
+        <v>5574</v>
       </c>
       <c r="E36" t="n">
-        <v>5499</v>
+        <v>6127</v>
       </c>
       <c r="F36" t="n">
-        <v>13989.6283464747</v>
+        <v>90909.21952970581</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -3401,22 +3615,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[55.5478422889072, 55.4409162986839]</t>
+          <t>[56.325523233246, 55.85065, 55.86060682686]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[11.6704618613278, 11.7867221386722]</t>
+          <t>[14.7487923790329, 13.649139, 13.5809079617067]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[289968.6511526  296749.45509323]</t>
+          <t>[484464.69343139 415428.03278656 411179.3943763 ]</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>[6160792.05362203 6148553.63516739]</t>
+          <t>[6242338.74450964 6190282.67597187 6191476.15526432]</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3430,51 +3644,57 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>0.0241671150843026</v>
+        <v>0.01548730471212439</v>
       </c>
       <c r="R36" t="n">
-        <v>0.004817361932178636</v>
+        <v>0.001888695696600536</v>
       </c>
       <c r="S36" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
-        <v>1.610221501916165e-09</v>
+        <v>3.300909457208777e-11</v>
       </c>
       <c r="U36" t="n">
-        <v>-27.64233597078372</v>
+        <v>-200.0094038356464</v>
+      </c>
+      <c r="V36" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W36" t="n">
+        <v>68646304.71940117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2351_new</t>
+          <t>257_new</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5574</v>
+        <v>5496</v>
       </c>
       <c r="E37" t="n">
-        <v>6126</v>
+        <v>5499</v>
       </c>
       <c r="F37" t="n">
-        <v>117953.678351073</v>
+        <v>13989.6283464747</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -3484,22 +3704,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[56.8096773966344, 55.886095, 55.860808777109]</t>
+          <t>[55.5478422889072, 55.4409162986839]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[14.400145954015, 13.649139, 13.58084966626]</t>
+          <t>[11.6704618613278, 11.7867221386722]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[463374.59203221 415505.02624662 411176.20676818]</t>
+          <t>[289968.6511526  296749.45509323]</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>[6296360.86902461 6194227.11816417 6191498.7035289 ]</t>
+          <t>[6160792.05362203 6148553.63516739]</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3513,45 +3733,51 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>0.02009460171354845</v>
+        <v>0.0241671150843026</v>
       </c>
       <c r="R37" t="n">
-        <v>0.002450561184579079</v>
+        <v>0.004817361932178636</v>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T37" t="n">
-        <v>2.544075832886859e-11</v>
+        <v>1.610221501916165e-09</v>
       </c>
       <c r="U37" t="n">
-        <v>-452.5910503455231</v>
+        <v>-27.64233597078372</v>
+      </c>
+      <c r="V37" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3871430.506787685</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2379_new</t>
+          <t>452_new</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5573</v>
+        <v>6764</v>
       </c>
       <c r="E38" t="n">
-        <v>5574</v>
+        <v>6791</v>
       </c>
       <c r="F38" t="n">
-        <v>32487.8630654764</v>
+        <v>225716.753026721</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3567,22 +3793,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[55.8604522508522, 55.792017, 55.7372269354925]</t>
+          <t>[66.2856234748843, 66.245844, 66.5050207208212]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[13.5802526624535, 13.510437, 13.1455741202045]</t>
+          <t>[25.4150523790743, 24.46106, 20.4295191712457]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[411138.02960516 406604.78519374 383567.43469778]</t>
+          <t>[965662.95620808 923957.99334702 741297.65490461]</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>[6191459.79481584 6183936.13732529 6178391.74698256]</t>
+          <t>[7390638.50953453 7379447.68721359 7386698.48418043]</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3596,19 +3822,25 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>0.00553463595159778</v>
+        <v>0.03845313105579873</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0006749556038533878</v>
+        <v>0.004689406226316918</v>
       </c>
       <c r="S38" t="n">
         <v>1500</v>
       </c>
       <c r="T38" t="n">
-        <v>9.236775650287737e-11</v>
+        <v>1.32946756706867e-11</v>
       </c>
       <c r="U38" t="n">
-        <v>-330.2619696531153</v>
+        <v>831.8808201540577</v>
+      </c>
+      <c r="V38" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W38" t="n">
+        <v>170440589.9500988</v>
       </c>
     </row>
     <row r="39">
@@ -3693,31 +3925,37 @@
       <c r="U39" t="n">
         <v>78.51355140614515</v>
       </c>
+      <c r="V39" t="n">
+        <v>468322.0643615199</v>
+      </c>
+      <c r="W39" t="n">
+        <v>22610946.49230307</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2328_new</t>
+          <t>2351_new</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6112</v>
+        <v>5574</v>
       </c>
       <c r="E40" t="n">
-        <v>6119</v>
+        <v>6126</v>
       </c>
       <c r="F40" t="n">
-        <v>80876.3475887782</v>
+        <v>117953.678351073</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3733,22 +3971,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[57.9643140476444, 57.935996, 57.631434, 57.3564007536336]</t>
+          <t>[56.8096773966344, 55.886095, 55.860808777109]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[12.2446661008728, 12.355499, 12.779846, 12.6714489594492]</t>
+          <t>[14.400145954015, 13.649139, 13.58084966626]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[336999.85750346 343431.0687289  367436.95419289 359916.56336356]</t>
+          <t>[463374.59203221 415505.02624662 411176.20676818]</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>[6428060.6146673  6424647.34324285 6389847.46986337 6359457.36833563]</t>
+          <t>[6296360.86902461 6194227.11816417 6191498.7035289 ]</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3762,51 +4000,57 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>0.01377810353659241</v>
+        <v>0.02009460171354845</v>
       </c>
       <c r="R40" t="n">
-        <v>0.001680256528852733</v>
+        <v>0.002450561184579079</v>
       </c>
       <c r="S40" t="n">
         <v>1500</v>
       </c>
       <c r="T40" t="n">
-        <v>3.710393847393672e-11</v>
+        <v>2.544075832886859e-11</v>
       </c>
       <c r="U40" t="n">
-        <v>262.2099542009209</v>
+        <v>-452.5910503455231</v>
+      </c>
+      <c r="V40" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W40" t="n">
+        <v>89067799.5999752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>326_new</t>
+          <t>2379_new</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5496</v>
+        <v>5573</v>
       </c>
       <c r="E41" t="n">
-        <v>5569</v>
+        <v>5574</v>
       </c>
       <c r="F41" t="n">
-        <v>7526.330195804259</v>
+        <v>32487.8630654764</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -3816,22 +4060,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[55.4404792490633, 55.3816720809912]</t>
+          <t>[55.8604522508522, 55.792017, 55.7372269354925]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[11.7867368185921, 11.7281251814079]</t>
+          <t>[13.5802526624535, 13.510437, 13.1455741202045]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[296748.13581546 292734.31703667]</t>
+          <t>[411138.02960516 406604.78519374 383567.43469778]</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>[6148504.98154043 6142137.2389876 ]</t>
+          <t>[6191459.79481584 6183936.13732529 6178391.74698256]</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3845,51 +4089,57 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>0.01300175269132852</v>
+        <v>0.00553463595159778</v>
       </c>
       <c r="R41" t="n">
-        <v>0.002591709777866298</v>
+        <v>0.0006749556038533878</v>
       </c>
       <c r="S41" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
-        <v>2.993012501612985e-09</v>
+        <v>9.236775650287737e-11</v>
       </c>
       <c r="U41" t="n">
-        <v>-3.215153289079087</v>
+        <v>-330.2619696531153</v>
+      </c>
+      <c r="V41" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W41" t="n">
+        <v>24531854.51609925</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2337_new</t>
+          <t>1281_new</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6119</v>
+        <v>6746</v>
       </c>
       <c r="E42" t="n">
-        <v>6120</v>
+        <v>6747</v>
       </c>
       <c r="F42" t="n">
-        <v>48966.237878922</v>
+        <v>66002.6820579479</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -3899,22 +4149,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[57.3562643372169, 57.5385801619599]</t>
+          <t>[70.3629820192702, 69.9351232590657]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>[12.6717634169521, 13.4138995830479]</t>
+          <t>[24.6131855467015, 23.4108014532985]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[359934.95675225 405049.08049738]</t>
+          <t>[859246.32385428 821163.21989669]</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>[6359441.53992288 6378449.75208156]</t>
+          <t>[7834819.35865839 7780829.53289064]</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3928,45 +4178,51 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>0.008341893710675077</v>
+        <v>0.1140197847764137</v>
       </c>
       <c r="R42" t="n">
-        <v>0.001017304111057936</v>
+        <v>0.02272818119916472</v>
       </c>
       <c r="S42" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T42" t="n">
-        <v>6.128367534281176e-11</v>
+        <v>3.412952271777701e-10</v>
       </c>
       <c r="U42" t="n">
-        <v>786.8230346640906</v>
+        <v>-110.9593336577104</v>
+      </c>
+      <c r="V42" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W42" t="n">
+        <v>18265302.73145808</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2333_new</t>
+          <t>7477_new</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6116</v>
+        <v>6668</v>
       </c>
       <c r="E43" t="n">
-        <v>6117</v>
+        <v>6673</v>
       </c>
       <c r="F43" t="n">
-        <v>28481.4184950524</v>
+        <v>66047.5498624832</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3982,22 +4238,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[57.568868661349, 57.5482803495968]</t>
+          <t>[65.9380719131633, 65.936394, 65.8264523087194]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[12.088153606005, 12.562420393995]</t>
+          <t>[23.0722133464626, 22.711487, 21.6572325450465]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[325851.13999106 354125.33371732]</t>
+          <t>[866445.46559414 850160.9478136  803745.25764866]</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>[6384448.9445901 6381039.7107583]</t>
+          <t>[7336630.06781237 7334380.10533144 7316689.15702692]</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4011,25 +4267,31 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>0.004852097610652971</v>
+        <v>0.01125186791286071</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0005917192208113381</v>
+        <v>0.001372179013763502</v>
       </c>
       <c r="S43" t="n">
         <v>1500</v>
       </c>
       <c r="T43" t="n">
-        <v>1.053610102127474e-10</v>
+        <v>4.543440341358222e-11</v>
       </c>
       <c r="U43" t="n">
-        <v>-385.774919290013</v>
+        <v>-726.4152710617651</v>
+      </c>
+      <c r="V43" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W43" t="n">
+        <v>49873052.01039972</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2335_new</t>
+          <t>2328_new</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4043,13 +4305,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6120</v>
+        <v>6112</v>
       </c>
       <c r="E44" t="n">
-        <v>6121</v>
+        <v>6119</v>
       </c>
       <c r="F44" t="n">
-        <v>50833.5625510642</v>
+        <v>80876.3475887782</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4065,22 +4327,22 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[57.5387750830844, 57.718724387084]</t>
+          <t>[57.9643140476444, 57.935996, 57.631434, 57.3564007536336]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[13.4147191519898, 14.1966708480101]</t>
+          <t>[12.2446661008728, 12.355499, 12.779846, 12.6714489594492]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[405098.64481154 452144.75597671]</t>
+          <t>[336999.85750346 343431.0687289  367436.95419289 359916.56336356]</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>[6378470.30229219 6397679.20852804]</t>
+          <t>[6428060.6146673  6424647.34324285 6389847.46986337 6359457.36833563]</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4094,51 +4356,57 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>0.008660011348727003</v>
+        <v>0.01377810353659241</v>
       </c>
       <c r="R44" t="n">
-        <v>0.001056098944966708</v>
+        <v>0.001680256528852733</v>
       </c>
       <c r="S44" t="n">
         <v>1500</v>
       </c>
       <c r="T44" t="n">
-        <v>5.903247528473538e-11</v>
+        <v>3.710393847393672e-11</v>
       </c>
       <c r="U44" t="n">
-        <v>703.4760548222152</v>
+        <v>262.2099542009209</v>
+      </c>
+      <c r="V44" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W44" t="n">
+        <v>61070400.00884979</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>6498_new</t>
+          <t>454_new</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5569</v>
+        <v>6655</v>
       </c>
       <c r="E45" t="n">
-        <v>5575</v>
+        <v>6668</v>
       </c>
       <c r="F45" t="n">
-        <v>6941.57467573494</v>
+        <v>81424.5284212331</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -4148,22 +4416,24 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[55.3811986243888, 55.3192397724116]</t>
+          <t>[65.9380745721968, 65.938634, 66.004618, 65.9873, 65.8777113031085]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[11.7278550262251, 11.7155959737749]</t>
+          <t>[23.0731110194199, 23.512115, 23.987274, 24.562683, 24.6120409666595]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[292714.73235456 291613.12123683]</t>
+          <t>[866485.99689378 886310.47905477 906705.41827106 932880.61537538
+ 936971.79945505]</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>[6142085.38521788 6135230.86606516]</t>
+          <t>[7336635.61637448 7339337.03971453 7349645.32444982 7351594.41650087
+ 7339837.37181942]</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -4177,25 +4447,31 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>0.01199158618799482</v>
+        <v>0.01387149168394968</v>
       </c>
       <c r="R45" t="n">
-        <v>0.002390347817973838</v>
+        <v>0.001691645327310937</v>
       </c>
       <c r="S45" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T45" t="n">
-        <v>3.245142697384361e-09</v>
+        <v>3.685414067621692e-11</v>
       </c>
       <c r="U45" t="n">
-        <v>-21.07142155830752</v>
+        <v>-617.3735607338031</v>
+      </c>
+      <c r="V45" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W45" t="n">
+        <v>61484335.8963286</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>331_new</t>
+          <t>326_new</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4209,13 +4485,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5516</v>
+        <v>5496</v>
       </c>
       <c r="E46" t="n">
-        <v>6104</v>
+        <v>5569</v>
       </c>
       <c r="F46" t="n">
-        <v>16448.5900549009</v>
+        <v>7526.330195804259</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4224,29 +4500,29 @@
         <v>132</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[55.7961137861439, 55.9351200611729]</t>
+          <t>[55.4404792490633, 55.3816720809912]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[12.5640887324349, 12.4751272675651]</t>
+          <t>[11.7867368185921, 11.7281251814079]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[347295.61737626 342284.49910174]</t>
+          <t>[296748.13581546 292734.31703667]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>[6186073.29655546 6201738.17038531]</t>
+          <t>[6148504.98154043 6142137.2389876 ]</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4260,25 +4536,31 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>0.0284149770806082</v>
+        <v>0.01300175269132852</v>
       </c>
       <c r="R46" t="n">
-        <v>0.005664111269150292</v>
+        <v>0.002591709777866298</v>
       </c>
       <c r="S46" t="n">
         <v>150</v>
       </c>
       <c r="T46" t="n">
-        <v>1.369503422002888e-09</v>
+        <v>2.993012501612985e-09</v>
       </c>
       <c r="U46" t="n">
-        <v>168.3618827310657</v>
+        <v>-3.215153289079087</v>
+      </c>
+      <c r="V46" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2082804.746670518</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2255_new</t>
+          <t>2333_new</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4292,19 +4574,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6390</v>
+        <v>6116</v>
       </c>
       <c r="E47" t="n">
-        <v>7945</v>
+        <v>6117</v>
       </c>
       <c r="F47" t="n">
-        <v>23495.6220956241</v>
+        <v>28481.4184950524</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -4314,22 +4596,22 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[59.559375, 59.496764464054]</t>
+          <t>[57.568868661349, 57.5482803495968]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[16.368256, 15.9718017901903]</t>
+          <t>[12.088153606005, 12.562420393995]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[577327.13104511 555024.66445095]</t>
+          <t>[325851.13999106 354125.33371732]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>[6603137.53316804 6595771.22532238]</t>
+          <t>[6384448.9445901 6381039.7107583]</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4343,45 +4625,51 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>0.01461194679913813</v>
+        <v>0.004852097610652971</v>
       </c>
       <c r="R47" t="n">
-        <v>0.002912678489742823</v>
+        <v>0.0005917192208113381</v>
       </c>
       <c r="S47" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
-        <v>3.451495814508246e-10</v>
+        <v>1.053610102127474e-10</v>
       </c>
       <c r="U47" t="n">
-        <v>-24.86760888918838</v>
+        <v>-385.774919290013</v>
+      </c>
+      <c r="V47" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W47" t="n">
+        <v>21506555.03332405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2345_new</t>
+          <t>2337_new</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6125</v>
+        <v>6119</v>
       </c>
       <c r="E48" t="n">
-        <v>6127</v>
+        <v>6120</v>
       </c>
       <c r="F48" t="n">
-        <v>61460.2533589734</v>
+        <v>48966.237878922</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4397,22 +4685,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[56.3258333282677, 56.637351, 56.6493852884397]</t>
+          <t>[57.3562643372169, 57.5385801619599]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[14.749489908274, 15.428925, 15.5424672108861]</t>
+          <t>[12.6717634169521, 13.4138995830479]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[484507.95585991 526309.10556205 533262.8125227 ]</t>
+          <t>[359934.95675225 405049.08049738]</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>[6242373.10177361 6277100.95585124 6278489.7646352 ]</t>
+          <t>[6359441.53992288 6378449.75208156]</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4426,51 +4714,57 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>0.01047037557223508</v>
+        <v>0.008341893710675077</v>
       </c>
       <c r="R48" t="n">
-        <v>0.001276875069784766</v>
+        <v>0.001017304111057936</v>
       </c>
       <c r="S48" t="n">
         <v>1500</v>
       </c>
       <c r="T48" t="n">
-        <v>4.882555571978644e-11</v>
+        <v>6.128367534281176e-11</v>
       </c>
       <c r="U48" t="n">
-        <v>373.8395288634363</v>
+        <v>786.8230346640906</v>
+      </c>
+      <c r="V48" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W48" t="n">
+        <v>36974811.83743741</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>6496_new</t>
+          <t>2335_new</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5501</v>
+        <v>6120</v>
       </c>
       <c r="E49" t="n">
-        <v>5586</v>
+        <v>6121</v>
       </c>
       <c r="F49" t="n">
-        <v>11312.9751599772</v>
+        <v>50833.5625510642</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -4480,22 +4774,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[55.4990810590512, 55.498306940987]</t>
+          <t>[57.5387750830844, 57.718724387084]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[12.1696561798583, 11.9906528201417]</t>
+          <t>[13.4147191519898, 14.1966708480101]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[321227.33596362 309920.85392517]</t>
+          <t>[405098.64481154 452144.75597671]</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>[6153971.12343771 6154360.1185927 ]</t>
+          <t>[6378470.30229219 6397679.20852804]</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4509,48 +4803,54 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>0.01954319055987797</v>
+        <v>0.008660011348727003</v>
       </c>
       <c r="R49" t="n">
-        <v>0.003895650014826163</v>
+        <v>0.001056098944966708</v>
       </c>
       <c r="S49" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="T49" t="n">
-        <v>1.99120037379759e-09</v>
+        <v>5.903247528473538e-11</v>
       </c>
       <c r="U49" t="n">
-        <v>20.58287181036702</v>
+        <v>703.4760548222152</v>
+      </c>
+      <c r="V49" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W49" t="n">
+        <v>38384844.16547916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>1166_new</t>
+          <t>1337_new</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>NO5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>NO3</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>NO3</t>
-        </is>
-      </c>
       <c r="D50" t="n">
-        <v>6603</v>
+        <v>6398</v>
       </c>
       <c r="E50" t="n">
-        <v>6605</v>
+        <v>6618</v>
       </c>
       <c r="F50" t="n">
-        <v>33284.9843738102</v>
+        <v>75300.0784799697</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>132</v>
@@ -4563,22 +4863,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[63.0581865391036, 63.169235, 63.271747122419]</t>
+          <t>[61.2333014522257, 61.251744, 61.665766, 61.7326154996854]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[9.6024199750926, 9.95773300000001, 9.93306218856054]</t>
+          <t>[6.09286047561288, 5.951843, 5.23361200000001, 5.2185534689179]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[227381.23797589 246270.32867439 245932.81679804]</t>
+          <t>[ 22826.01975515  15590.13646308 -15748.35101137 -15418.06316007]</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>[7003531.60265856 7014416.86880281 7025910.08173438]</t>
+          <t>[6821383.19852374 6824465.14879647 6875773.4609288  6883279.8548565 ]</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4592,25 +4892,31 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>0.05749988691756699</v>
+        <v>0.1300810584393416</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01146176386279484</v>
+        <v>0.02592976186182101</v>
       </c>
       <c r="S50" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T50" t="n">
-        <v>6.767736500736959e-10</v>
+        <v>2.991550715754117e-10</v>
       </c>
       <c r="U50" t="n">
-        <v>-277.3072660394209</v>
+        <v>-101.0171256607414</v>
+      </c>
+      <c r="V50" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W50" t="n">
+        <v>20838224.84564592</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2325_new</t>
+          <t>2255_new</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4624,19 +4930,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6110</v>
+        <v>6390</v>
       </c>
       <c r="E51" t="n">
-        <v>6114</v>
+        <v>7945</v>
       </c>
       <c r="F51" t="n">
-        <v>120166.255508546</v>
+        <v>23495.6220956241</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -4646,22 +4952,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[57.8163934419987, 58.381559, 58.5609064731032]</t>
+          <t>[59.559375, 59.496764464054]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[12.4080181262434, 13.609314, 13.878203140697]</t>
+          <t>[16.368256, 15.9718017901903]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[346029.28094776 418677.48798492 434733.45116836]</t>
+          <t>[577327.13104511 555024.66445095]</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>[6411217.33665331 6472032.07843506 6491705.53488236]</t>
+          <t>[6603137.53316804 6595771.22532238]</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4675,45 +4981,51 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>0.02047153660325645</v>
+        <v>0.01461194679913813</v>
       </c>
       <c r="R51" t="n">
-        <v>0.002496528854055664</v>
+        <v>0.002912678489742823</v>
       </c>
       <c r="S51" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="T51" t="n">
-        <v>2.497232698340454e-11</v>
+        <v>3.451495814508246e-10</v>
       </c>
       <c r="U51" t="n">
-        <v>-56.80279097186833</v>
+        <v>-24.86760888918838</v>
+      </c>
+      <c r="V51" t="n">
+        <v>468322.0643615199</v>
+      </c>
+      <c r="W51" t="n">
+        <v>11003518.24328082</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2289_new</t>
+          <t>2270_new</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6549</v>
+        <v>6673</v>
       </c>
       <c r="E52" t="n">
-        <v>6573</v>
+        <v>6731</v>
       </c>
       <c r="F52" t="n">
-        <v>47029.8482707168</v>
+        <v>110564.192810508</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4729,22 +5041,22 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[63.1847544617073, 63.200211, 63.4865159350699]</t>
+          <t>[65.8265707575663, 66.638279, 66.669233216611]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>[17.1670678380367, 16.917572, 16.6636788258976]</t>
+          <t>[21.6565989162501, 20.648804, 20.4528397213521]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[609057.81792524 596453.44103236 582857.10135943]</t>
+          <t>[803715.03497811 749678.23519778 740733.40482853]</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>[7008015.23384172 7009337.32608037 7040873.80717937]</t>
+          <t>[7316699.23099341 7402368.34956292 7405037.01563903]</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4758,45 +5070,51 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>0.008012010162462835</v>
+        <v>0.01883572813807823</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0009770744100564433</v>
+        <v>0.002297040016838809</v>
       </c>
       <c r="S52" t="n">
         <v>1500</v>
       </c>
       <c r="T52" t="n">
-        <v>6.380694676404515e-11</v>
+        <v>2.714107477882793e-11</v>
       </c>
       <c r="U52" t="n">
-        <v>-976.7513451102133</v>
+        <v>-1049.099466346355</v>
+      </c>
+      <c r="V52" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W52" t="n">
+        <v>83487937.85700338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2305_new</t>
+          <t>2269_new</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE1</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6122</v>
+        <v>6730</v>
       </c>
       <c r="E53" t="n">
-        <v>6382</v>
+        <v>6731</v>
       </c>
       <c r="F53" t="n">
-        <v>47631.51431307769</v>
+        <v>19469.5332154059</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4812,22 +5130,22 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[58.7049220479748, 58.9845481751918]</t>
+          <t>[66.7295339762211, 66.6693601729212]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[16.0362570300009, 16.6604289699991]</t>
+          <t>[20.0381092526347, 20.4520027473653]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[560042.42931062 595431.95513036]</t>
+          <t>[721914.7673032  740695.29421372]</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>[6507659.66126269 6539516.68190515]</t>
+          <t>[7410200.37329832 7405047.89184798]</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4841,25 +5159,31 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>0.008114510056106033</v>
+        <v>0.003316831835865548</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0009895743970861016</v>
+        <v>0.0004044916873006766</v>
       </c>
       <c r="S53" t="n">
         <v>1500</v>
       </c>
       <c r="T53" t="n">
-        <v>6.300095783658175e-11</v>
+        <v>1.54129582447115e-10</v>
       </c>
       <c r="U53" t="n">
-        <v>-293.9260096105294</v>
+        <v>847.3657694940584</v>
+      </c>
+      <c r="V53" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W53" t="n">
+        <v>14701605.80811644</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>246_new</t>
+          <t>6498_new</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4873,13 +5197,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5516</v>
+        <v>5569</v>
       </c>
       <c r="E54" t="n">
-        <v>5518</v>
+        <v>5575</v>
       </c>
       <c r="F54" t="n">
-        <v>7126.867289300641</v>
+        <v>6941.57467573494</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4895,22 +5219,22 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[55.7956390839629, 55.7350812873128]</t>
+          <t>[55.3811986243888, 55.3192397724116]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>[12.5640953499517, 12.5273056500483]</t>
+          <t>[11.7278550262251, 11.7155959737749]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[347294.1740097  344747.83194675]</t>
+          <t>[292714.73235456 291613.12123683]</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>[6186020.4682184  6179364.84726716]</t>
+          <t>[6142085.38521788 6135230.86606516]</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4924,25 +5248,31 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>0.01231167960330287</v>
+        <v>0.01199158618799482</v>
       </c>
       <c r="R54" t="n">
-        <v>0.002454153771984777</v>
+        <v>0.002390347817973838</v>
       </c>
       <c r="S54" t="n">
         <v>150</v>
       </c>
       <c r="T54" t="n">
-        <v>3.160771690126416e-09</v>
+        <v>3.245142697384361e-09</v>
       </c>
       <c r="U54" t="n">
-        <v>111.2077317247268</v>
+        <v>-21.07142155830752</v>
+      </c>
+      <c r="V54" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1920981.980308084</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>248_new</t>
+          <t>331_new</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4959,10 +5289,10 @@
         <v>5516</v>
       </c>
       <c r="E55" t="n">
-        <v>5576</v>
+        <v>6104</v>
       </c>
       <c r="F55" t="n">
-        <v>6902.678167099761</v>
+        <v>16448.5900549009</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4971,29 +5301,29 @@
         <v>132</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[55.7343192088615, 55.7956281842888]</t>
+          <t>[55.7961137861439, 55.9351200611729]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>[12.5806526082804, 12.5643063917196]</t>
+          <t>[12.5640887324349, 12.4751272675651]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[348093.61117077 347307.35853569]</t>
+          <t>[347295.61737626 342284.49910174]</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>[6179161.83984523 6186018.790214  ]</t>
+          <t>[6186073.29655546 6201738.17038531]</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -5007,45 +5337,51 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>0.01192439238003345</v>
+        <v>0.0284149770806082</v>
       </c>
       <c r="R55" t="n">
-        <v>0.002376953712329782</v>
+        <v>0.005664111269150292</v>
       </c>
       <c r="S55" t="n">
         <v>150</v>
       </c>
       <c r="T55" t="n">
-        <v>3.263429037540394e-09</v>
+        <v>1.369503422002888e-09</v>
       </c>
       <c r="U55" t="n">
-        <v>100.3778979837118</v>
+        <v>168.3618827310657</v>
+      </c>
+      <c r="V55" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W55" t="n">
+        <v>4551913.157023555</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2319_new</t>
+          <t>2289_new</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>SE2</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6122</v>
+        <v>6549</v>
       </c>
       <c r="E56" t="n">
-        <v>6382</v>
+        <v>6573</v>
       </c>
       <c r="F56" t="n">
-        <v>50791.5559174108</v>
+        <v>47029.8482707168</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5061,22 +5397,22 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[58.7047641069184, 58.703343, 58.919537, 58.9844732038683]</t>
+          <t>[63.1847544617073, 63.200211, 63.4865159350699]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[16.0363670402677, 16.144409, 16.633301, 16.660671736523]</t>
+          <t>[17.1670678380367, 16.917572, 16.6636788258976]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[560049.0749892  566311.56728655 594049.80274353 595446.11351527]</t>
+          <t>[609057.81792524 596453.44103236 582857.10135943]</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>[6507642.1750904  6507585.76433408 6532240.66656653 6539508.68208778]</t>
+          <t>[7008015.23384172 7009337.32608037 7040873.80717937]</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5090,51 +5426,57 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>0.008652855093963336</v>
+        <v>0.008012010162462835</v>
       </c>
       <c r="R56" t="n">
-        <v>0.001055226230971139</v>
+        <v>0.0009770744100564433</v>
       </c>
       <c r="S56" t="n">
         <v>1500</v>
       </c>
       <c r="T56" t="n">
-        <v>5.908129748594874e-11</v>
+        <v>6.380694676404515e-11</v>
       </c>
       <c r="U56" t="n">
-        <v>-275.6391427841777</v>
+        <v>-976.7513451102133</v>
+      </c>
+      <c r="V56" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W56" t="n">
+        <v>35512628.00407054</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>410_new</t>
+          <t>2345_new</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE4</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5575</v>
+        <v>6125</v>
       </c>
       <c r="E57" t="n">
-        <v>7951</v>
+        <v>6127</v>
       </c>
       <c r="F57" t="n">
-        <v>11011.5195227764</v>
+        <v>61460.2533589734</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -5144,22 +5486,22 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[55.318206, 55.25486, 55.2552510019235]</t>
+          <t>[56.3258333282677, 56.637351, 56.6493852884397]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>[11.716919, 11.848755, 11.8480685]</t>
+          <t>[14.749489908274, 15.428925, 15.5424672108861]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[291691.60773782 299734.58171981 299692.93706649]</t>
+          <t>[484507.95585991 526309.10556205 533262.8125227 ]</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>[6135111.93042648 6127679.76117667 6127725.22342573]</t>
+          <t>[6242373.10177361 6277100.95585124 6278489.7646352 ]</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -5173,51 +5515,57 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>0.01902242525456667</v>
+        <v>0.01047037557223508</v>
       </c>
       <c r="R57" t="n">
-        <v>0.003791843046197311</v>
+        <v>0.001276875069784766</v>
       </c>
       <c r="S57" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="T57" t="n">
-        <v>2.045712248951246e-09</v>
+        <v>4.882555571978644e-11</v>
       </c>
       <c r="U57" t="n">
-        <v>71.90023825948657</v>
+        <v>373.8395288634363</v>
+      </c>
+      <c r="V57" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W57" t="n">
+        <v>46409146.42142611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2387_new</t>
+          <t>1162_new</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6124</v>
+        <v>6752</v>
       </c>
       <c r="E58" t="n">
-        <v>6132</v>
+        <v>6756</v>
       </c>
       <c r="F58" t="n">
-        <v>67636.9967286543</v>
+        <v>45150.34389991929</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -5227,22 +5575,22 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[57.7989125794697, 57.860096, 57.989904, 58.2840624760998]</t>
+          <t>[69.1830889443811, 69.2439621225689]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>[14.6254961476729, 14.611816, 14.642029, 15.1951486911047]</t>
+          <t>[19.2498625216598, 20.3764494783402]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[477739.48268207 476965.40342108 478834.72244982 511443.58313364]</t>
+          <t>[668439.83114262 712408.07975435]</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>[6406384.39107347 6413200.45875042 6427642.20604484 6460353.00212706]</t>
+          <t>[7680620.10041118 7690893.01083294]</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5256,25 +5604,31 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>0.01152264625709762</v>
+        <v>0.07799732273803781</v>
       </c>
       <c r="R58" t="n">
-        <v>0.001405200763060685</v>
+        <v>0.01554762875334391</v>
       </c>
       <c r="S58" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T58" t="n">
-        <v>4.436671008574588e-11</v>
+        <v>4.989197959874171e-10</v>
       </c>
       <c r="U58" t="n">
-        <v>17.141356579355</v>
+        <v>29.86357129975197</v>
+      </c>
+      <c r="V58" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W58" t="n">
+        <v>12494714.97290708</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2317_new</t>
+          <t>2305_new</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5288,13 +5642,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6354</v>
+        <v>6122</v>
       </c>
       <c r="E59" t="n">
         <v>6382</v>
       </c>
       <c r="F59" t="n">
-        <v>75877.3005570619</v>
+        <v>47631.51431307769</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5310,22 +5664,22 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[59.0948377469651, 58.950717, 58.9846626639857]</t>
+          <t>[58.7049220479748, 58.9845481751918]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>[17.9320089742261, 17.074127, 16.661209212149]</t>
+          <t>[16.0362570300009, 16.6604289699991]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[667952.61324787 619321.43441269 595476.47629307]</t>
+          <t>[560042.42931062 595431.95513036]</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>[6554300.75983418 6536414.95847117 6539530.54195407]</t>
+          <t>[6507659.66126269 6539516.68190515]</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -5339,48 +5693,54 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>0.01292646533035819</v>
+        <v>0.008114510056106033</v>
       </c>
       <c r="R59" t="n">
-        <v>0.001576398211019292</v>
+        <v>0.0009895743970861016</v>
       </c>
       <c r="S59" t="n">
         <v>1500</v>
       </c>
       <c r="T59" t="n">
-        <v>3.954846842072402e-11</v>
+        <v>6.300095783658175e-11</v>
       </c>
       <c r="U59" t="n">
-        <v>347.4094508715673</v>
+        <v>-293.9260096105294</v>
+      </c>
+      <c r="V59" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W59" t="n">
+        <v>35966951.01659763</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>290_new</t>
+          <t>1165_new</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5585</v>
+        <v>6606</v>
       </c>
       <c r="E60" t="n">
-        <v>5586</v>
+        <v>6618</v>
       </c>
       <c r="F60" t="n">
-        <v>9138.37082014364</v>
+        <v>125981.474688156</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>132</v>
@@ -5393,22 +5753,22 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[55.5595229290993, 55.4992693570256]</t>
+          <t>[62.4779336946648, 61.7329656956376]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>[12.268678297362, 12.1704087026379]</t>
+          <t>[7.03366082879706, 5.21884217120294]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[327744.57583786 321275.70681384]</t>
+          <t>[ 90056.21464396 -15397.05795894]</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>[6160444.57812279 6153990.13383436]</t>
+          <t>[6952756.49307279 6883316.2517785 ]</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5422,51 +5782,57 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>0.01578655657061086</v>
+        <v>0.2176332867374596</v>
       </c>
       <c r="R60" t="n">
-        <v>0.003146819816852784</v>
+        <v>0.04338202168718683</v>
       </c>
       <c r="S60" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T60" t="n">
-        <v>2.465034611821036e-09</v>
+        <v>1.788072446609267e-10</v>
       </c>
       <c r="U60" t="n">
-        <v>37.18096189305307</v>
+        <v>-199.2035870161685</v>
+      </c>
+      <c r="V60" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W60" t="n">
+        <v>34863579.81202069</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>262_new</t>
+          <t>2325_new</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5508</v>
+        <v>6110</v>
       </c>
       <c r="E61" t="n">
-        <v>7986</v>
+        <v>6114</v>
       </c>
       <c r="F61" t="n">
-        <v>8341.165318757741</v>
+        <v>120166.255508546</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -5476,22 +5842,22 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[55.2937273518862, 55.22119]</t>
+          <t>[57.8163934419987, 58.381559, 58.5609064731032]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[11.9010517924357, 11.933899]</t>
+          <t>[12.4080181262434, 13.609314, 13.878203140697]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>[303249.32419209 304978.94935701]</t>
+          <t>[346029.28094776 418677.48798492 434733.45116836]</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>[6131853.80619622 6123693.33568358]</t>
+          <t>[6411217.33665331 6472032.07843506 6491705.53488236]</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5505,51 +5871,57 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>0.01440938223683471</v>
+        <v>0.02047153660325645</v>
       </c>
       <c r="R61" t="n">
-        <v>0.002872300198505125</v>
+        <v>0.002496528854055664</v>
       </c>
       <c r="S61" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T61" t="n">
-        <v>2.700629888806032e-09</v>
+        <v>2.497232698340454e-11</v>
       </c>
       <c r="U61" t="n">
-        <v>-5.238571257899682</v>
+        <v>-56.80279097186833</v>
+      </c>
+      <c r="V61" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W61" t="n">
+        <v>90738534.939612</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2316_new</t>
+          <t>6496_new</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6335</v>
+        <v>5501</v>
       </c>
       <c r="E62" t="n">
-        <v>6382</v>
+        <v>5586</v>
       </c>
       <c r="F62" t="n">
-        <v>41440.254655072</v>
+        <v>11312.9751599772</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -5559,22 +5931,22 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>[59.2221939088634, 58.9848461066072]</t>
+          <t>[55.4990810590512, 55.498306940987]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>[17.2179790489521, 16.6611109510479]</t>
+          <t>[12.1696561798583, 11.9906528201417]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>[626591.0315045  595470.32199326]</t>
+          <t>[321227.33596362 309920.85392517]</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>[6566899.40331611 6539550.82397521]</t>
+          <t>[6153971.12343771 6154360.1185927 ]</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5588,51 +5960,57 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>0.007059766374756035</v>
+        <v>0.01954319055987797</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0008609471188726872</v>
+        <v>0.003895650014826163</v>
       </c>
       <c r="S62" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="T62" t="n">
-        <v>7.241343109274224e-11</v>
+        <v>1.99120037379759e-09</v>
       </c>
       <c r="U62" t="n">
-        <v>527.2736364568594</v>
+        <v>20.58287181036702</v>
+      </c>
+      <c r="V62" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3130704.838767479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2284_new</t>
+          <t>1166_new</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>6568</v>
+        <v>6603</v>
       </c>
       <c r="E63" t="n">
-        <v>6573</v>
+        <v>6605</v>
       </c>
       <c r="F63" t="n">
-        <v>20768.337835044</v>
+        <v>33284.9843738102</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -5642,22 +6020,22 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[63.524644246923, 63.4867428072548]</t>
+          <t>[63.0581865391036, 63.169235, 63.271747122419]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>[16.2547113785122, 16.6630736214878]</t>
+          <t>[9.6024199750926, 9.95773300000001, 9.93306218856054]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>[562408.08363335 582826.30852125]</t>
+          <t>[227381.23797589 246270.32867439 245932.81679804]</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>[7044657.42087381 7040898.29685   ]</t>
+          <t>[7003531.60265856 7014416.86880281 7025910.08173438]</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5671,48 +6049,54 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>0.003538096334778963</v>
+        <v>0.05749988691756699</v>
       </c>
       <c r="R63" t="n">
-        <v>0.0004314751627779224</v>
+        <v>0.01146176386279484</v>
       </c>
       <c r="S63" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="T63" t="n">
-        <v>1.444906688616754e-10</v>
+        <v>6.767736500736959e-10</v>
       </c>
       <c r="U63" t="n">
-        <v>-44.3958028859754</v>
+        <v>-277.3072660394209</v>
+      </c>
+      <c r="V63" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W63" t="n">
+        <v>9211145.623835836</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>417_new</t>
+          <t>1283_new</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6104</v>
+        <v>6750</v>
       </c>
       <c r="E64" t="n">
-        <v>6140</v>
+        <v>6751</v>
       </c>
       <c r="F64" t="n">
-        <v>2781.5495790573</v>
+        <v>53036.4442558071</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>132</v>
@@ -5725,22 +6109,22 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[55.9353408472334, 55.9338331533622]</t>
+          <t>[69.4316092107865, 69.7132540117726]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>[12.4754224932204, 12.5198475067796]</t>
+          <t>[21.0419255165229, 22.1384634834771]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>[342303.83303963 345072.14383246]</t>
+          <t>[736566.40440763 775681.14309787]</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>[6201762.06069365 6201493.87890141]</t>
+          <t>[7714181.26539397 7750030.61404729]</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5754,25 +6138,31 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>0.004805133283380666</v>
+        <v>0.0916205792068293</v>
       </c>
       <c r="R64" t="n">
-        <v>0.0009578332406518</v>
+        <v>0.01826322624506481</v>
       </c>
       <c r="S64" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T64" t="n">
-        <v>8.098507586172136e-09</v>
+        <v>4.247343630100726e-10</v>
       </c>
       <c r="U64" t="n">
-        <v>164.9688064549807</v>
+        <v>-89.602242371887</v>
+      </c>
+      <c r="V64" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W64" t="n">
+        <v>14677080.99016206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2318_new</t>
+          <t>2319_new</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5786,13 +6176,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6110</v>
+        <v>6122</v>
       </c>
       <c r="E65" t="n">
-        <v>6379</v>
+        <v>6382</v>
       </c>
       <c r="F65" t="n">
-        <v>101656.709978325</v>
+        <v>50791.5559174108</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5808,22 +6198,22 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[58.5612435228818, 58.947175, 59.1736569870769]</t>
+          <t>[58.7047641069184, 58.703343, 58.919537, 58.9844732038683]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>[13.8788156954875, 14.729919, 15.1841570123621]</t>
+          <t>[16.0363670402677, 16.144409, 16.633301, 16.660671736523]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>[434769.71433796 484459.48971014 510526.91382698]</t>
+          <t>[560049.0749892  566311.56728655 594049.80274353 595446.11351527]</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>[6491742.46450842 6534201.32633539 6559403.60998062]</t>
+          <t>[6507642.1750904  6507585.76433408 6532240.66656653 6539508.68208778]</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5837,48 +6227,54 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>0.01731824837580883</v>
+        <v>0.008652855093963336</v>
       </c>
       <c r="R65" t="n">
-        <v>0.002111981509244979</v>
+        <v>0.001055226230971139</v>
       </c>
       <c r="S65" t="n">
         <v>1500</v>
       </c>
       <c r="T65" t="n">
-        <v>2.9519261695274e-11</v>
+        <v>5.908129748594874e-11</v>
       </c>
       <c r="U65" t="n">
-        <v>-296.41591651277</v>
+        <v>-275.6391427841777</v>
+      </c>
+      <c r="V65" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W65" t="n">
+        <v>38353124.60844275</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>1165_new</t>
+          <t>1280_new</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6606</v>
+        <v>6752</v>
       </c>
       <c r="E66" t="n">
-        <v>6618</v>
+        <v>6755</v>
       </c>
       <c r="F66" t="n">
-        <v>125981.474688156</v>
+        <v>48922.6296363291</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>132</v>
@@ -5891,22 +6287,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[62.4779336946648, 61.7329656956376]</t>
+          <t>[69.1832234854148, 69.6206167025019]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>[7.03366082879706, 5.21884217120294]</t>
+          <t>[19.2493875130831, 19.1588154869169]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>[ 90056.21464396 -15397.05795894]</t>
+          <t>[668419.99061211 661521.88044287]</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>[6952756.49307279 6883316.2517785 ]</t>
+          <t>[7680633.76599216 7729064.32589473]</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5920,1804 +6316,1936 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>0.2176332867374596</v>
+        <v>0.08451395500766219</v>
       </c>
       <c r="R66" t="n">
-        <v>0.04338202168718683</v>
+        <v>0.01684662435592977</v>
       </c>
       <c r="S66" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T66" t="n">
-        <v>1.788072446609267e-10</v>
+        <v>4.604495002570699e-10</v>
       </c>
       <c r="U66" t="n">
-        <v>-199.2035870161685</v>
+        <v>229.4494564084957</v>
+      </c>
+      <c r="V66" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W66" t="n">
+        <v>13538641.35311983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2336_new</t>
+          <t>246_new</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6126</v>
+        <v>5516</v>
       </c>
       <c r="E67" t="n">
-        <v>6139</v>
+        <v>5518</v>
       </c>
       <c r="F67" t="n">
-        <v>160174.104504103</v>
+        <v>7126.867289300641</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
+        <v>132</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[55.7956390839629, 55.7350812873128]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>[12.5640953499517, 12.5273056500483]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>[347294.1740097  344747.83194675]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[6186020.4682184  6179364.84726716]</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.01231167960330287</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.002454153771984777</v>
+      </c>
+      <c r="S67" t="n">
+        <v>150</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.160771690126416e-09</v>
+      </c>
+      <c r="U67" t="n">
+        <v>111.2077317247268</v>
+      </c>
+      <c r="V67" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1972259.073528466</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>248_new</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5516</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5576</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6902.678167099761</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>132</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[55.7343192088615, 55.7956281842888]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[12.5806526082804, 12.5643063917196]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[348093.61117077 347307.35853569]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[6179161.83984523 6186018.790214  ]</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.01192439238003345</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.002376953712329782</v>
+      </c>
+      <c r="S68" t="n">
+        <v>150</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.263429037540394e-09</v>
+      </c>
+      <c r="U68" t="n">
+        <v>100.3778979837118</v>
+      </c>
+      <c r="V68" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1910217.925223253</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2317_new</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6354</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6382</v>
+      </c>
+      <c r="F69" t="n">
+        <v>75877.3005570619</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
         <v>380</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[59.0948377469651, 58.950717, 58.9846626639857]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[17.9320089742261, 17.074127, 16.661209212149]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>[667952.61324787 619321.43441269 595476.47629307]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[6554300.75983418 6536414.95847117 6539530.54195407]</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.01292646533035819</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.001576398211019292</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.954846842072402e-11</v>
+      </c>
+      <c r="U69" t="n">
+        <v>347.4094508715673</v>
+      </c>
+      <c r="V69" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W69" t="n">
+        <v>57295578.18526478</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2387_new</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>6124</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6132</v>
+      </c>
+      <c r="F70" t="n">
+        <v>67636.9967286543</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>380</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[57.7989125794697, 57.860096, 57.989904, 58.2840624760998]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[14.6254961476729, 14.611816, 14.642029, 15.1951486911047]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>[477739.48268207 476965.40342108 478834.72244982 511443.58313364]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[6406384.39107347 6413200.45875042 6427642.20604484 6460353.00212706]</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.01152264625709762</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.001405200763060685</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4.436671008574588e-11</v>
+      </c>
+      <c r="U70" t="n">
+        <v>17.141356579355</v>
+      </c>
+      <c r="V70" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W70" t="n">
+        <v>51073256.50533354</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2284_new</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SE2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SE2</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>6568</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6573</v>
+      </c>
+      <c r="F71" t="n">
+        <v>20768.337835044</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>380</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[63.524644246923, 63.4867428072548]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[16.2547113785122, 16.6630736214878]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>[562408.08363335 582826.30852125]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[7044657.42087381 7040898.29685   ]</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.003538096334778963</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.0004314751627779224</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.444906688616754e-10</v>
+      </c>
+      <c r="U71" t="n">
+        <v>-44.3958028859754</v>
+      </c>
+      <c r="V71" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W71" t="n">
+        <v>15682343.93513897</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>1284_new</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NO4</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NO4</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>6747</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F72" t="n">
+        <v>54823.3551376866</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>132</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[69.934942807674, 69.7134159244637]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[23.4100929560386, 22.1392230439614]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[821139.08711218 775708.2522078 ]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[7780805.83923017 7750051.99529205]</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.09470747185745906</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.01887855327487338</v>
+      </c>
+      <c r="S72" t="n">
+        <v>300</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.108905832329183e-10</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-131.2386137428223</v>
+      </c>
+      <c r="V72" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W72" t="n">
+        <v>15171583.14058998</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>410_new</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5575</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7951</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11011.5195227764</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>132</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[55.318206, 55.25486, 55.2552510019235]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[11.716919, 11.848755, 11.8480685]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>[291691.60773782 299734.58171981 299692.93706649]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[6135111.93042648 6127679.76117667 6127725.22342573]</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.01902242525456667</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.003791843046197311</v>
+      </c>
+      <c r="S73" t="n">
+        <v>300</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.045712248951246e-09</v>
+      </c>
+      <c r="U73" t="n">
+        <v>71.90023825948657</v>
+      </c>
+      <c r="V73" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W73" t="n">
+        <v>3047281.282301349</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2316_new</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>6335</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6382</v>
+      </c>
+      <c r="F74" t="n">
+        <v>41440.254655072</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>380</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[59.2221939088634, 58.9848461066072]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[17.2179790489521, 16.6611109510479]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>[626591.0315045  595470.32199326]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[6566899.40331611 6539550.82397521]</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.007059766374756035</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0008609471188726872</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T74" t="n">
+        <v>7.241343109274224e-11</v>
+      </c>
+      <c r="U74" t="n">
+        <v>527.2736364568594</v>
+      </c>
+      <c r="V74" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W74" t="n">
+        <v>31291879.56312951</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>290_new</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5585</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5586</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9138.37082014364</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>132</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[55.5595229290993, 55.4992693570256]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>[12.268678297362, 12.1704087026379]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[327744.57583786 321275.70681384]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[6160444.57812279 6153990.13383436]</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.01578655657061086</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.003146819816852784</v>
+      </c>
+      <c r="S75" t="n">
+        <v>300</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.465034611821036e-09</v>
+      </c>
+      <c r="U75" t="n">
+        <v>37.18096189305307</v>
+      </c>
+      <c r="V75" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2528914.042549076</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>262_new</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5508</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7986</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8341.165318757741</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>132</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[55.2937273518862, 55.22119]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[11.9010517924357, 11.933899]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>[303249.32419209 304978.94935701]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[6131853.80619622 6123693.33568358]</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.01440938223683471</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.002872300198505125</v>
+      </c>
+      <c r="S76" t="n">
+        <v>150</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.700629888806032e-09</v>
+      </c>
+      <c r="U76" t="n">
+        <v>-5.238571257899682</v>
+      </c>
+      <c r="V76" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W76" t="n">
+        <v>2308298.768018065</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>1277_new</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6109</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6142</v>
+      </c>
+      <c r="F77" t="n">
+        <v>67113.6278718845</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>380</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[58.79505894216, 58.3046297234687]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>[11.6292879621831, 12.2989340378169]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>[305247.34324434 341726.56278966]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[6522134.08363461 6465801.54197798]</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.0114334850806673</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.001394327448861866</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4.471269278810462e-11</v>
+      </c>
+      <c r="U77" t="n">
+        <v>-924.7450307729445</v>
+      </c>
+      <c r="V77" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W77" t="n">
+        <v>50678056.34622619</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2322_new</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>6122</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6124</v>
+      </c>
+      <c r="F78" t="n">
+        <v>81101.03473240499</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>380</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[58.2843830198821, 58.444858, 58.596887, 58.747544, 58.7048639868608]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>[15.1958043722844, 15.552521, 15.533295, 15.849152, 16.0355088703606]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>[511481.92867529 532252.82582772 530996.17481269 549141.54651593
+ 559999.18173054]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[6460388.80235658 6478371.83641458 6495289.69007036 6512252.768729
+ 6507652.527158  ]</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.01381638126327675</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.001684924544302043</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.700114350984631e-11</v>
+      </c>
+      <c r="U78" t="n">
+        <v>103.2087810935167</v>
+      </c>
+      <c r="V78" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W78" t="n">
+        <v>61240063.13221318</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>417_new</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6104</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6140</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2781.5495790573</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>132</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[55.9353408472334, 55.9338331533622]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>[12.4754224932204, 12.5198475067796]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>[342303.83303963 345072.14383246]</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>[6201762.06069365 6201493.87890141]</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.004805133283380666</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0009578332406518</v>
+      </c>
+      <c r="S79" t="n">
+        <v>150</v>
+      </c>
+      <c r="T79" t="n">
+        <v>8.098507586172136e-09</v>
+      </c>
+      <c r="U79" t="n">
+        <v>164.9688064549807</v>
+      </c>
+      <c r="V79" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W79" t="n">
+        <v>769754.2514929275</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2318_new</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6379</v>
+      </c>
+      <c r="F80" t="n">
+        <v>101656.709978325</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>380</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[58.5612435228818, 58.947175, 59.1736569870769]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>[13.8788156954875, 14.729919, 15.1841570123621]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>[434769.71433796 484459.48971014 510526.91382698]</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[6491742.46450842 6534201.32633539 6559403.60998062]</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.01731824837580883</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.002111981509244979</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.9519261695274e-11</v>
+      </c>
+      <c r="U80" t="n">
+        <v>-296.41591651277</v>
+      </c>
+      <c r="V80" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W80" t="n">
+        <v>76761823.78470001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2336_new</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SE4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6126</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6139</v>
+      </c>
+      <c r="F81" t="n">
+        <v>160174.104504103</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>380</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>[56.8099109058987, 56.82343, 56.979415, 57.390224, 57.4367598010592]</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>[14.4007773753753, 15.011444, 15.486603, 16.325684, 16.6603338198144]</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>[463413.37178304 500698.48779403 529576.27389301 579684.7238608
  599671.36093176]</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>[6296386.52321379 6297731.3102782  6315199.80589694 6361601.78392327
  6367222.95055483]</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q67" t="n">
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>0.0272872781911422</v>
       </c>
-      <c r="R67" t="n">
+      <c r="R81" t="n">
         <v>0.003327716852578318</v>
       </c>
-      <c r="S67" t="n">
+      <c r="S81" t="n">
         <v>1500</v>
       </c>
-      <c r="T67" t="n">
+      <c r="T81" t="n">
         <v>1.873480756593759e-11</v>
       </c>
-      <c r="U67" t="n">
+      <c r="U81" t="n">
         <v>-519.4368630377878</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>2322_new</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="V81" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W81" t="n">
+        <v>120948793.1238149</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>455_new</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>6655</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6662</v>
+      </c>
+      <c r="F82" t="n">
+        <v>130172.087814168</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>380</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[65.8774963397272, 65.829218, 65.603878, 65.323872, 64.9719890451407]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[24.6125628047341, 25.225983, 25.569305, 25.572052, 25.8081366688441]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>[ 936999.0416682   965568.98012678  985305.85100756  990670.24618755
+ 1008257.43626391]</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[7339817.28134902 7338913.5595182  7316679.27300555 7285843.03426276
+ 7248945.399971  ]</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.0221761313035217</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.002704406256527037</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.305279937750322e-11</v>
+      </c>
+      <c r="U82" t="n">
+        <v>471.8859258018753</v>
+      </c>
+      <c r="V82" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W82" t="n">
+        <v>98294021.79755948</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2321_new</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>SE3</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>SE3</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>6122</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6124</v>
-      </c>
-      <c r="F68" t="n">
-        <v>81101.03473240499</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="D83" t="n">
+        <v>6112</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6377</v>
+      </c>
+      <c r="F83" t="n">
+        <v>164732.866441613</v>
+      </c>
+      <c r="G83" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H83" t="n">
         <v>380</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>[58.2843830198821, 58.444858, 58.596887, 58.747544, 58.7048639868608]</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>[15.1958043722844, 15.552521, 15.533295, 15.849152, 16.0355088703606]</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[511481.92867529 532252.82582772 530996.17481269 549141.54651593
- 559999.18173054]</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>[6460388.80235658 6478371.83641458 6495289.69007036 6512252.768729
- 6507652.527158  ]</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.01381638126327675</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.001684924544302043</v>
-      </c>
-      <c r="S68" t="n">
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[57.9646405552472, 58.177944, 58.749682, 59.3371891620296]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>[12.2441124817647, 12.100067, 12.391205, 12.977395874277]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>[336968.6001245  329470.74826024 349056.38387448 384946.32285675]</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>[6428098.28303782 6452189.57794482 6515118.08997777 6579346.30787891]</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.02806390937994238</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.003422427973163705</v>
+      </c>
+      <c r="S83" t="n">
         <v>1500</v>
       </c>
-      <c r="T68" t="n">
-        <v>3.700114350984631e-11</v>
-      </c>
-      <c r="U68" t="n">
-        <v>103.2087810935167</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="T83" t="n">
+        <v>1.821634680286672e-11</v>
+      </c>
+      <c r="U83" t="n">
+        <v>-737.1436786396135</v>
+      </c>
+      <c r="V83" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W83" t="n">
+        <v>124391152.0256341</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>6817_new</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>DK2</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>DK2</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D84" t="n">
         <v>6104</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E84" t="n">
         <v>6107</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F84" t="n">
         <v>13369.7490139496</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G84" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H84" t="n">
         <v>132</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>[56.042678712013, 55.966881, 55.9355915036736]</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>[12.5708888918329, 12.495575, 12.4751298201619]</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>[348685.67235857 343689.51478875 342286.57450062]</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>[6213490.80105424 6205225.33239846 6201790.61531325]</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>0.02309627211431835</v>
       </c>
-      <c r="R69" t="n">
+      <c r="R84" t="n">
         <v>0.004603905003581729</v>
       </c>
-      <c r="S69" t="n">
+      <c r="S84" t="n">
         <v>150</v>
       </c>
-      <c r="T69" t="n">
+      <c r="T84" t="n">
         <v>1.684878328217386e-09</v>
       </c>
-      <c r="U69" t="n">
+      <c r="U84" t="n">
         <v>159.8924841815087</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="V84" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W84" t="n">
+        <v>3699887.725304888</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>2343_new</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>SE4</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>SE3</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D85" t="n">
         <v>6125</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E85" t="n">
         <v>6139</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F85" t="n">
         <v>112223.500465012</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G85" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H85" t="n">
         <v>380</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>[57.4366468691103, 57.357646, 57.084038, 56.724101, 56.6496514103279]</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>[16.6604543500245, 16.517944, 16.269379, 15.611572, 15.5431095657002]</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>[599678.90271587 591321.02876639 576935.60468816 537425.91044813
  533301.96519213]</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>[6367210.55758362 6358217.26498833 6327456.18373078 6286841.80813657
  6278519.69757647]</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
         <v>0.01911840797395634</v>
       </c>
-      <c r="R70" t="n">
+      <c r="R85" t="n">
         <v>0.002331513167555651</v>
       </c>
-      <c r="S70" t="n">
+      <c r="S85" t="n">
         <v>1500</v>
       </c>
-      <c r="T70" t="n">
+      <c r="T85" t="n">
         <v>2.673977386640438e-11</v>
       </c>
-      <c r="U70" t="n">
+      <c r="U85" t="n">
         <v>-850.3222783487571</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="V85" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W85" t="n">
+        <v>84740894.8119038</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>6497_new</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>DK2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>DK2</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D86" t="n">
         <v>5522</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E86" t="n">
         <v>5585</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F86" t="n">
         <v>8323.418305556201</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G86" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H86" t="n">
         <v>132</v>
       </c>
-      <c r="I71" t="b">
+      <c r="I86" t="b">
         <v>1</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>[55.5598897995509, 55.6130814461272]</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>[12.2692970582168, 12.3620509417832]</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>[327785.1937567  333858.22428695]</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>[6160483.85541153 6166175.1488497 ]</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q71" t="n">
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
         <v>0.01437872423078752</v>
       </c>
-      <c r="R71" t="n">
+      <c r="R86" t="n">
         <v>0.00286618897212444</v>
       </c>
-      <c r="S71" t="n">
+      <c r="S86" t="n">
         <v>300</v>
       </c>
-      <c r="T71" t="n">
+      <c r="T86" t="n">
         <v>2.706388113675871e-09</v>
       </c>
-      <c r="U71" t="n">
+      <c r="U86" t="n">
         <v>68.90996513213254</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1337_new</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>NO3</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>6398</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6618</v>
-      </c>
-      <c r="F72" t="n">
-        <v>75300.0784799697</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="V86" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W86" t="n">
+        <v>2303387.534737867</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2324_new</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>6122</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6139</v>
+      </c>
+      <c r="F87" t="n">
+        <v>161552.477835131</v>
+      </c>
+      <c r="G87" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="n">
-        <v>132</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>[61.2333014522257, 61.251744, 61.665766, 61.7326154996854]</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>[6.09286047561288, 5.951843, 5.23361200000001, 5.2185534689179]</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[ 22826.01975515  15590.13646308 -15748.35101137 -15418.06316007]</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>[6821383.19852374 6824465.14879647 6875773.4609288  6883279.8548565 ]</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.1300810584393416</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.02592976186182101</v>
-      </c>
-      <c r="S72" t="n">
-        <v>150</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2.991550715754117e-10</v>
-      </c>
-      <c r="U72" t="n">
-        <v>-101.0171256607414</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>2324_new</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>6122</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6139</v>
-      </c>
-      <c r="F73" t="n">
-        <v>161552.477835131</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
+      <c r="H87" t="n">
         <v>380</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr">
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>[57.4368981789408, 57.495904, 58.412503, 58.535294, 58.7045692127668]</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>[16.6603439534393, 16.34079, 16.406708, 16.225433, 16.0361440721556]</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>[599671.59292372 580360.59221617 582187.29060308 571347.7704428
  560036.49178942]</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>[6367238.36735478 6373382.86926266 6475496.39663198 6488959.45262784
  6507620.2764746 ]</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Pypsa 2019-09-04</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
         <v>0.02752209802454447</v>
       </c>
-      <c r="R73" t="n">
+      <c r="R87" t="n">
         <v>0.003356353417627375</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.857496130757699e-11</v>
-      </c>
-      <c r="U73" t="n">
-        <v>124.7896270267539</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>2321_new</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>6112</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6377</v>
-      </c>
-      <c r="F74" t="n">
-        <v>164732.866441613</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>380</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>[57.9646405552472, 58.177944, 58.749682, 59.3371891620296]</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>[12.2441124817647, 12.100067, 12.391205, 12.977395874277]</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[336968.6001245  329470.74826024 349056.38387448 384946.32285675]</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>[6428098.28303782 6452189.57794482 6515118.08997777 6579346.30787891]</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.02806390937994238</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.003422427973163705</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.821634680286672e-11</v>
-      </c>
-      <c r="U74" t="n">
-        <v>-737.1436786396135</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>1298_new</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>6418</v>
-      </c>
-      <c r="E75" t="n">
-        <v>6484</v>
-      </c>
-      <c r="F75" t="n">
-        <v>43774.0709301105</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>300</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>[60.1177858596078, 60.5043657284188]</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>[6.2978331181315, 6.15654388186852]</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[17280.69651524 15258.42013284]</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>[6696405.10463381 6740240.61288504]</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.01288903199608809</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.001945514263560467</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.052068778498164e-10</v>
-      </c>
-      <c r="U75" t="n">
-        <v>-7.74294876058832</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1277_new</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>6109</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6142</v>
-      </c>
-      <c r="F76" t="n">
-        <v>67113.6278718845</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>380</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>[58.79505894216, 58.3046297234687]</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>[11.6292879621831, 12.2989340378169]</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[305247.34324434 341726.56278966]</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>[6522134.08363461 6465801.54197798]</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.0114334850806673</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.001394327448861866</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T76" t="n">
-        <v>4.471269278810462e-11</v>
-      </c>
-      <c r="U76" t="n">
-        <v>-924.7450307729445</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>1192_new</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>6489</v>
-      </c>
-      <c r="E77" t="n">
-        <v>6490</v>
-      </c>
-      <c r="F77" t="n">
-        <v>15987.3264811558</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>300</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>[60.3475049452022, 60.4563736165114]</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>[5.44892803336274, 5.25999596663728]</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[-25886.09481711 -34441.13186579]</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>[6728336.90729099 6741900.29196669]</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.004707379463895875</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.0007105478436069245</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2.880615053906369e-10</v>
-      </c>
-      <c r="U77" t="n">
-        <v>-690.6932071048118</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>1210_new</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>NO2</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>NO1</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>6462</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6464</v>
-      </c>
-      <c r="F78" t="n">
-        <v>68741.8641211854</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>300</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>[59.917100968569, 59.7218634490028]</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>[8.76064712169114, 9.92297687830887]</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[151456.84202511 214625.69011077]</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>[6658624.85424856 6631366.09946776]</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.02024065999123792</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.003055193960941573</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T78" t="n">
-        <v>6.699459481073379e-11</v>
-      </c>
-      <c r="U78" t="n">
-        <v>968.3278141002916</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>2326_new</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>6123</v>
-      </c>
-      <c r="E79" t="n">
-        <v>6139</v>
-      </c>
-      <c r="F79" t="n">
-        <v>145482.432355454</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>380</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>[58.492770370797, 58.308767, 57.449383, 57.4368327757624]</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>[16.0965561044084, 16.285858, 16.221313, 16.6603201802147]</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[563921.95293765 575347.85015451 573293.26910774 599670.34380573]</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>[6484095.4762668  6463806.45576464 6368069.43178577 6367231.052893  ]</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.02478440329601225</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.003022488206830762</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2.062675868381746e-11</v>
-      </c>
-      <c r="U79" t="n">
-        <v>200.262276786024</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>2270_new</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SE1</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SE1</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>6673</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6731</v>
-      </c>
-      <c r="F80" t="n">
-        <v>110564.192810508</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>380</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>[65.8265707575663, 66.638279, 66.669233216611]</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>[21.6565989162501, 20.648804, 20.4528397213521]</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[803715.03497811 749678.23519778 740733.40482853]</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>[7316699.23099341 7402368.34956292 7405037.01563903]</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.01883572813807823</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.002297040016838809</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.714107477882793e-11</v>
-      </c>
-      <c r="U80" t="n">
-        <v>-1049.099466346355</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>2378_new</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>6114</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6116</v>
-      </c>
-      <c r="F81" t="n">
-        <v>33458.1279616499</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>380</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>[57.5690858465438, 57.8160384984702]</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>[12.0879630700551, 12.4074289299449]</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[325840.78629564 345992.77776424]</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>[6384473.59863277 6411179.17906926]</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.005699930386818473</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.0006951134618071309</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T81" t="n">
-        <v>8.968914902741526e-11</v>
-      </c>
-      <c r="U81" t="n">
-        <v>461.9451145865739</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1164_new</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>NO1</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>NO3</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>6561</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6611</v>
-      </c>
-      <c r="F82" t="n">
-        <v>99665.26534499141</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>132</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>[62.6285260466415, 62.184732, 61.837532913534]</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>[10.2668803297433, 10.623779, 11.1288969745905]</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[257373.65645778 272299.60314499 296249.28021071]</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>[6953108.52789811 6902456.20600378 6862152.90093466]</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.172171974683439</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.03431997214954123</v>
-      </c>
-      <c r="S82" t="n">
-        <v>150</v>
-      </c>
-      <c r="T82" t="n">
-        <v>2.260205728578989e-10</v>
-      </c>
-      <c r="U82" t="n">
-        <v>-116.8771861999852</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>1334_new</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>NO3</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>NO3</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>6611</v>
-      </c>
-      <c r="E83" t="n">
-        <v>6612</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9416.388128683471</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>132</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>[62.6815788399503, 62.6288473888959]</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>[10.1228770726635, 10.2663749273365]</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[250449.06763745 257350.41039652]</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>[6959557.12677361 6953146.16088202]</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.01626683210935333</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.003242555741030072</v>
-      </c>
-      <c r="S83" t="n">
-        <v>150</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2.392254870919274e-09</v>
-      </c>
-      <c r="U83" t="n">
-        <v>-116.8771861999844</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>1280_new</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>NO4</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>NO4</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>6752</v>
-      </c>
-      <c r="E84" t="n">
-        <v>6755</v>
-      </c>
-      <c r="F84" t="n">
-        <v>48922.6296363291</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84" t="n">
-        <v>132</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>[69.1832234854148, 69.6206167025019]</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>[19.2493875130831, 19.1588154869169]</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[668419.99061211 661521.88044287]</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>[7680633.76599216 7729064.32589473]</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.08451395500766219</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.01684662435592977</v>
-      </c>
-      <c r="S84" t="n">
-        <v>300</v>
-      </c>
-      <c r="T84" t="n">
-        <v>4.604495002570699e-10</v>
-      </c>
-      <c r="U84" t="n">
-        <v>229.4494564084957</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>1322_new</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>NO5</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>6405</v>
-      </c>
-      <c r="E85" t="n">
-        <v>6478</v>
-      </c>
-      <c r="F85" t="n">
-        <v>94210.60659312289</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>132</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>[61.2069246766079, 61.29069, 61.423006, 61.517456, 61.492588810339]</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>[7.33850459163975, 7.098541, 6.652222, 6.131744, 5.74903921225485]</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[88979.67811093 77279.17684026 55378.02529729 29206.77225467
-  8591.66671501]</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>[6809971.55894071 6820790.60910828 6838422.7628599  6852544.34223538
- 6852628.24575081]</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.1627490391674127</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.03244164738111391</v>
-      </c>
-      <c r="S85" t="n">
-        <v>150</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2.391068392606425e-10</v>
-      </c>
-      <c r="U85" t="n">
-        <v>-91.3972751622822</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>452_new</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>SE1</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>6764</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6791</v>
-      </c>
-      <c r="F86" t="n">
-        <v>225716.753026721</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>380</v>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>[66.2856234748843, 66.245844, 66.5050207208212]</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>[25.4150523790743, 24.46106, 20.4295191712457]</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[965662.95620808 923957.99334702 741297.65490461]</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>[7390638.50953453 7379447.68721359 7386698.48418043]</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.03845313105579873</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.004689406226316918</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1.32946756706867e-11</v>
-      </c>
-      <c r="U86" t="n">
-        <v>831.8808201540577</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>2344_new</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SE3</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SE4</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>6121</v>
-      </c>
-      <c r="E87" t="n">
-        <v>6126</v>
-      </c>
-      <c r="F87" t="n">
-        <v>101907.556891104</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>380</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>[57.7185819386707, 56.8101439827546]</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>[14.1971366707475, 14.4002763292525]</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[452172.3169185  463383.00720965]</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>[6397663.02183   6296412.7347466]</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Pypsa 2019-09-04</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.01736098268366453</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.002117193010202992</v>
       </c>
       <c r="S87" t="n">
         <v>1500</v>
       </c>
       <c r="T87" t="n">
-        <v>2.944659960926513e-11</v>
+        <v>1.857496130757699e-11</v>
       </c>
       <c r="U87" t="n">
-        <v>839.5164856291267</v>
+        <v>124.7896270267539</v>
+      </c>
+      <c r="V87" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W87" t="n">
+        <v>121989614.2439206</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2308_new</t>
+          <t>1192_new</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO5</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6335</v>
+        <v>6489</v>
       </c>
       <c r="E88" t="n">
-        <v>6356</v>
+        <v>6490</v>
       </c>
       <c r="F88" t="n">
-        <v>57071.7286002698</v>
+        <v>15987.3264811558</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -7727,22 +8255,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[59.222561895469, 59.340893, 59.512726, 59.7167336545715]</t>
+          <t>[60.3475049452022, 60.4563736165114]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>[17.2182126642849, 17.159271, 17.177124, 17.3294007655053]</t>
+          <t>[5.44892803336274, 5.25999596663728]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>[626602.99872425 622812.74415508 623201.84107097 631019.95428608]</t>
+          <t>[-25886.09481711 -34441.13186579]</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>[6566940.80922503 6580002.70919053 6599164.07476067 6622165.5453493 ]</t>
+          <t>[6728336.90729099 6741900.29196669]</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7756,51 +8284,57 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>0.009722746008079203</v>
+        <v>0.004707379463895875</v>
       </c>
       <c r="R88" t="n">
-        <v>0.001185700732692586</v>
+        <v>0.0007105478436069245</v>
       </c>
       <c r="S88" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
-        <v>5.257999185461085e-11</v>
+        <v>2.880615053906369e-10</v>
       </c>
       <c r="U88" t="n">
-        <v>-860.6740082372041</v>
+        <v>-690.6932071048118</v>
+      </c>
+      <c r="V88" t="n">
+        <v>596138.1186047395</v>
+      </c>
+      <c r="W88" t="n">
+        <v>9530654.729995949</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2238_new</t>
+          <t>7476_new</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6339</v>
+        <v>6142</v>
       </c>
       <c r="E89" t="n">
-        <v>6340</v>
+        <v>6376</v>
       </c>
       <c r="F89" t="n">
-        <v>52746.4816754704</v>
+        <v>42774.7273449891</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -7810,22 +8344,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[60.7002913728809, 61.09747, 61.1721715009122]</t>
+          <t>[59.1475586296498, 58.98116, 58.864905, 58.795436873457]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>[17.1798800404134, 17.19635, 17.1662238000065]</t>
+          <t>[11.409482773245, 11.552124, 11.532898, 11.6287676065903]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>[618994.8839797  618411.80841253 616512.49970252]</t>
+          <t>[294663.50278072 301859.45095485 300084.06803269 305219.41283803]</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>[6731379.60512154 6775631.31863975 6783894.75899219]</t>
+          <t>[6562009.10495013 6543065.73340128 6530189.08166125 6522177.64528327]</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7839,51 +8373,57 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>0.03280308054610866</v>
+        <v>0.007287107290074321</v>
       </c>
       <c r="R89" t="n">
-        <v>0.006538815697685647</v>
+        <v>0.0008886716207407709</v>
       </c>
       <c r="S89" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="T89" t="n">
-        <v>1.53744929986538e-10</v>
+        <v>7.015429930688461e-11</v>
       </c>
       <c r="U89" t="n">
-        <v>389.5287652560295</v>
+        <v>-1114.93247886651</v>
+      </c>
+      <c r="V89" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W89" t="n">
+        <v>32299550.94547851</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>7476_new</t>
+          <t>1298_new</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>NO5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6142</v>
+        <v>6418</v>
       </c>
       <c r="E90" t="n">
-        <v>6376</v>
+        <v>6484</v>
       </c>
       <c r="F90" t="n">
-        <v>42774.7273449891</v>
+        <v>43774.0709301105</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -7893,22 +8433,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[59.1475586296498, 58.98116, 58.864905, 58.795436873457]</t>
+          <t>[60.1177858596078, 60.5043657284188]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>[11.409482773245, 11.552124, 11.532898, 11.6287676065903]</t>
+          <t>[6.2978331181315, 6.15654388186852]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>[294663.50278072 301859.45095485 300084.06803269 305219.41283803]</t>
+          <t>[17280.69651524 15258.42013284]</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>[6562009.10495013 6543065.73340128 6530189.08166125 6522177.64528327]</t>
+          <t>[6696405.10463381 6740240.61288504]</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7922,51 +8462,57 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>0.007287107290074321</v>
+        <v>0.01288903199608809</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0008886716207407709</v>
+        <v>0.001945514263560467</v>
       </c>
       <c r="S90" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T90" t="n">
-        <v>7.015429930688461e-11</v>
+        <v>1.052068778498164e-10</v>
       </c>
       <c r="U90" t="n">
-        <v>-1114.93247886651</v>
+        <v>-7.74294876058832</v>
+      </c>
+      <c r="V90" t="n">
+        <v>596138.1186047395</v>
+      </c>
+      <c r="W90" t="n">
+        <v>26095392.2879465</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>415_new</t>
+          <t>2378_new</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5531</v>
+        <v>6114</v>
       </c>
       <c r="E91" t="n">
-        <v>7263</v>
+        <v>6116</v>
       </c>
       <c r="F91" t="n">
-        <v>5614.17692000156</v>
+        <v>33458.1279616499</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -7976,22 +8522,22 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[55.67681, 55.678359, 55.6715272447751]</t>
+          <t>[57.5690858465438, 57.8160384984702]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>[12.569733, 12.492828, 12.4906451348255]</t>
+          <t>[12.0879630700551, 12.4074289299449]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>[347183.79663842 342355.31634867 342190.5870046 ]</t>
+          <t>[325840.78629564 345992.77776424]</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>[6172787.61844808 6173132.09639064 6172377.01072485]</t>
+          <t>[6384473.59863277 6411179.17906926]</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -8005,51 +8551,57 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>0.009698503517679462</v>
+        <v>0.005699930386818473</v>
       </c>
       <c r="R91" t="n">
-        <v>0.001933255230597082</v>
+        <v>0.0006951134618071309</v>
       </c>
       <c r="S91" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T91" t="n">
-        <v>4.012413696307811e-09</v>
+        <v>8.968914902741526e-11</v>
       </c>
       <c r="U91" t="n">
-        <v>-44.31303495081345</v>
+        <v>461.9451145865739</v>
+      </c>
+      <c r="V91" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W91" t="n">
+        <v>25264509.57645317</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>1285_new</t>
+          <t>453_new</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO4</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NO4</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6751</v>
+        <v>6667</v>
       </c>
       <c r="E92" t="n">
-        <v>6756</v>
+        <v>6791</v>
       </c>
       <c r="F92" t="n">
-        <v>33480.1053819907</v>
+        <v>114272.724610879</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -8059,22 +8611,22 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[69.2440849345836, 69.4314179199206]</t>
+          <t>[65.2798686380545, 65.303224, 65.997916, 66.2854727703575]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>[20.3772411431321, 21.0412158568679]</t>
+          <t>[25.6941591132665, 25.679169, 25.673676, 25.4156497164013]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>[712438.08585843 736540.80078843]</t>
+          <t>[997126.14489792 995993.78679802 982598.60283658 965692.25756308]</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>[7690909.40673385 7714157.27828326]</t>
+          <t>[7281954.23050282 7284409.06833921 7360901.36898015 7390626.36064766]</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -8088,51 +8640,57 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>0.05783695890713498</v>
+        <v>0.01946751402650709</v>
       </c>
       <c r="R92" t="n">
-        <v>0.01152895424796428</v>
+        <v>0.002374087076403303</v>
       </c>
       <c r="S92" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T92" t="n">
-        <v>6.728294343848346e-10</v>
+        <v>2.62602561997989e-11</v>
       </c>
       <c r="U92" t="n">
-        <v>-102.9201188188249</v>
+        <v>-526.8929387168789</v>
+      </c>
+      <c r="V92" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W92" t="n">
+        <v>86288280.93933146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>1209_new</t>
+          <t>2326_new</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>SE3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6464</v>
+        <v>6123</v>
       </c>
       <c r="E93" t="n">
-        <v>6465</v>
+        <v>6139</v>
       </c>
       <c r="F93" t="n">
-        <v>28779.7039994749</v>
+        <v>145482.432355454</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -8142,22 +8700,22 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[59.7219946492008, 59.810994, 59.8867631544941]</t>
+          <t>[58.492770370797, 58.308767, 57.449383, 57.4368327757624]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>[9.92359728775512, 10.009918, 10.2883029888718]</t>
+          <t>[16.0965561044084, 16.285858, 16.221313, 16.6603201802147]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>[214661.63636826 220253.80005062 236442.58748815]</t>
+          <t>[563921.95293765 575347.85015451 573293.26910774 599670.34380573]</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>[6631378.01009441 6640902.16354382 6648182.52681537]</t>
+          <t>[6484095.4762668  6463806.45576464 6368069.43178577 6367231.052893  ]</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -8171,51 +8729,57 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>0.008474023955400943</v>
+        <v>0.02478440329601225</v>
       </c>
       <c r="R93" t="n">
-        <v>0.001279097955532218</v>
+        <v>0.003022488206830762</v>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T93" t="n">
-        <v>1.600201771851913e-10</v>
+        <v>2.062675868381746e-11</v>
       </c>
       <c r="U93" t="n">
-        <v>634.919782486466</v>
+        <v>200.262276786024</v>
+      </c>
+      <c r="V93" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W93" t="n">
+        <v>109854989.7849341</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>397_new</t>
+          <t>8799_new</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6107</v>
+        <v>6664</v>
       </c>
       <c r="E94" t="n">
-        <v>6140</v>
+        <v>6667</v>
       </c>
       <c r="F94" t="n">
-        <v>13110.1375806498</v>
+        <v>40054.0429882158</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>132</v>
+        <v>380</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -8225,22 +8789,22 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[56.0426525632459, 56.008363, 55.9340435032271]</t>
+          <t>[64.965557019101, 65.07676, 65.2795072978691]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>[12.5712032473829, 12.584839, 12.5204890652196]</t>
+          <t>[26.0592714632375, 25.823364, 25.6943903913787]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>[348705.14744703 349420.91644678 345113.05029223]</t>
+          <t>[1020098.20020988 1006967.76837     997143.64346765]</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>[6213487.2029097  6209642.33064565 6201515.8444066 ]</t>
+          <t>[7250287.88690005 7260609.82887548 7281916.24812728]</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -8254,25 +8818,31 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>0.0226477927673071</v>
+        <v>0.006823611201593551</v>
       </c>
       <c r="R94" t="n">
-        <v>0.004514507186501624</v>
+        <v>0.0008321477075114087</v>
       </c>
       <c r="S94" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="T94" t="n">
-        <v>1.718242865777229e-09</v>
+        <v>7.491955370931256e-11</v>
       </c>
       <c r="U94" t="n">
-        <v>-128.0576544863407</v>
+        <v>-641.3870607553548</v>
+      </c>
+      <c r="V94" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W94" t="n">
+        <v>30245139.65071055</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2323_new</t>
+          <t>2308_new</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -8286,13 +8856,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6122</v>
+        <v>6335</v>
       </c>
       <c r="E95" t="n">
-        <v>6123</v>
+        <v>6356</v>
       </c>
       <c r="F95" t="n">
-        <v>30147.6379395141</v>
+        <v>57071.7286002698</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -8308,22 +8878,22 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[58.7045923795042, 58.623352, 58.4931612490429]</t>
+          <t>[59.222561895469, 59.340893, 59.512726, 59.7167336545715]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>[16.0356310530249, 15.904083, 16.0960713264992]</t>
+          <t>[17.2182126642849, 17.159271, 17.177124, 17.3294007655053]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>[560006.72796691 552506.77502229 563892.98531306]</t>
+          <t>[626602.99872425 622812.74415508 623201.84107097 631019.95428608]</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>[6507622.39653355 6498466.96916046 6484138.53268721]</t>
+          <t>[6566940.80922503 6580002.70919053 6599164.07476067 6622165.5453493 ]</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -8337,51 +8907,57 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>0.005135954939834119</v>
+        <v>0.009722746008079203</v>
       </c>
       <c r="R95" t="n">
-        <v>0.0006263359682724536</v>
+        <v>0.001185700732692586</v>
       </c>
       <c r="S95" t="n">
         <v>1500</v>
       </c>
       <c r="T95" t="n">
-        <v>9.953784873466317e-11</v>
+        <v>5.257999185461085e-11</v>
       </c>
       <c r="U95" t="n">
-        <v>-297.6873246117634</v>
+        <v>-860.6740082372041</v>
+      </c>
+      <c r="V95" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W95" t="n">
+        <v>43095335.02349452</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2382_new</t>
+          <t>1159_new</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SE3</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6132</v>
+        <v>6746</v>
       </c>
       <c r="E96" t="n">
-        <v>6397</v>
+        <v>6748</v>
       </c>
       <c r="F96" t="n">
-        <v>145598.735322924</v>
+        <v>49483.2631647587</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>380</v>
+        <v>132</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -8391,24 +8967,22 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[57.7988970671541, 57.867401, 58.201108, 58.565388, 59.0509194751314]</t>
+          <t>[69.9596375722394, 70.3629541255401]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>[14.6257211191694, 14.679108, 14.794464, 15.144653, 15.1254361881652]</t>
+          <t>[25.1571317555366, 24.6136812444634]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>[477752.84536462 480962.30573087 487919.13126414 508415.13005303
- 507195.9530897 ]</t>
+          <t>[886900.44939764 859265.20349104]</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>[6406382.59017062 6413992.80180332 6451118.90771798 6491668.42751043
- 6545728.70783912]</t>
+          <t>[7793694.09140303 7834819.21541356]</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -8422,45 +8996,51 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>0.02480421668243719</v>
+        <v>0.0854824507150618</v>
       </c>
       <c r="R96" t="n">
-        <v>0.003024904473467951</v>
+        <v>0.01703967985039116</v>
       </c>
       <c r="S96" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T96" t="n">
-        <v>2.06102822134766e-11</v>
+        <v>4.552327176222373e-10</v>
       </c>
       <c r="U96" t="n">
-        <v>-582.4242031611499</v>
+        <v>-79.58566893988994</v>
+      </c>
+      <c r="V96" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W96" t="n">
+        <v>13693788.70166518</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>11018_new</t>
+          <t>1334_new</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5531</v>
+        <v>6611</v>
       </c>
       <c r="E97" t="n">
-        <v>7263</v>
+        <v>6612</v>
       </c>
       <c r="F97" t="n">
-        <v>5905.94140027291</v>
+        <v>9416.388128683471</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -8476,22 +9056,22 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[55.662139851936, 55.6715263479521]</t>
+          <t>[62.6815788399503, 62.6288473888959]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[12.5830246738567, 12.4906539613483]</t>
+          <t>[10.1228770726635, 10.2663749273365]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>[347962.51157992 342191.1383508 ]</t>
+          <t>[250449.06763745 257350.41039652]</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>[6171126.27838712 6172376.89086656]</t>
+          <t>[6959557.12677361 6953146.16088202]</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -8505,45 +9085,51 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>0.0102025273271473</v>
+        <v>0.01626683210935333</v>
       </c>
       <c r="R97" t="n">
-        <v>0.002033725026192136</v>
+        <v>0.003242555741030072</v>
       </c>
       <c r="S97" t="n">
         <v>150</v>
       </c>
       <c r="T97" t="n">
-        <v>3.81419300338275e-09</v>
+        <v>2.392254870919274e-09</v>
       </c>
       <c r="U97" t="n">
-        <v>-42.1238886766778</v>
+        <v>-116.8771861999844</v>
+      </c>
+      <c r="V97" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W97" t="n">
+        <v>2605851.375195754</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2408_new</t>
+          <t>1164_new</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>NO3</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6107</v>
+        <v>6561</v>
       </c>
       <c r="E98" t="n">
-        <v>6129</v>
+        <v>6611</v>
       </c>
       <c r="F98" t="n">
-        <v>22911.7649338128</v>
+        <v>99665.26534499141</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -8559,22 +9145,22 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[56.0705192943046, 56.074335, 56.0429493270381]</t>
+          <t>[62.6285260466415, 62.184732, 61.837532913534]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>[12.9332088939973, 12.834778, 12.571544690813]</t>
+          <t>[10.2668803297433, 10.623779, 11.1288969745905]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>[371344.07320254 365231.22959838 348727.57337101]</t>
+          <t>[257373.65645778 272299.60314499 296249.28021071]</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>[6215853.9212866  6216466.29826129 6213519.47292401]</t>
+          <t>[6953108.52789811 6902456.20600378 6862152.90093466]</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -8588,45 +9174,51 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>0.03958012652133639</v>
+        <v>0.172171974683439</v>
       </c>
       <c r="R98" t="n">
-        <v>0.007889720974538167</v>
+        <v>0.03431997214954123</v>
       </c>
       <c r="S98" t="n">
         <v>150</v>
       </c>
       <c r="T98" t="n">
-        <v>9.83180494055496e-10</v>
+        <v>2.260205728578989e-10</v>
       </c>
       <c r="U98" t="n">
-        <v>124.0644916544985</v>
+        <v>-116.8771861999852</v>
+      </c>
+      <c r="V98" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W98" t="n">
+        <v>27580943.4795257</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>6819_new</t>
+          <t>1161_new</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SE4</t>
+          <t>NO4</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6107</v>
+        <v>6748</v>
       </c>
       <c r="E99" t="n">
-        <v>6129</v>
+        <v>6749</v>
       </c>
       <c r="F99" t="n">
-        <v>22976.6920721172</v>
+        <v>54586.6703155333</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -8642,22 +9234,22 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[56.070449937018, 56.03676, 56.0428622688843]</t>
+          <t>[69.9594106563015, 69.6815085044273]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>[12.9332161859927, 12.649384, 12.5715490336071]</t>
+          <t>[25.156948922957, 23.990390077043]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>[371344.29596429 353551.82459546 348727.50309911]</t>
+          <t>[886897.74889511 847319.4916927 ]</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>[6215846.19022124 6212663.03841372 6213509.77727591]</t>
+          <t>[7793667.92900157 7755975.43996201]</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -8671,51 +9263,57 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>0.03969228830180944</v>
+        <v>0.09429859828383565</v>
       </c>
       <c r="R99" t="n">
-        <v>0.007912078789677104</v>
+        <v>0.01879705029109661</v>
       </c>
       <c r="S99" t="n">
         <v>150</v>
       </c>
       <c r="T99" t="n">
-        <v>9.804022396524961e-10</v>
+        <v>4.126721823679232e-10</v>
       </c>
       <c r="U99" t="n">
-        <v>123.7139123638402</v>
+        <v>-67.98588206101445</v>
+      </c>
+      <c r="V99" t="n">
+        <v>276735.7653045345</v>
+      </c>
+      <c r="W99" t="n">
+        <v>15106083.98519542</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2237_new</t>
+          <t>1210_new</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>NO2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SE2</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6339</v>
+        <v>6462</v>
       </c>
       <c r="E100" t="n">
-        <v>6551</v>
+        <v>6464</v>
       </c>
       <c r="F100" t="n">
-        <v>142065.546947149</v>
+        <v>68741.8641211854</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -8725,24 +9323,22 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[61.1725985491777, 61.234566, 61.743231, 61.923442, 62.4378583620399]</t>
+          <t>[59.917100968569, 59.7218634490028]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>[17.1661806008588, 17.178497, 17.005463, 17.057648, 16.9931291388529]</t>
+          <t>[8.76064712169114, 9.92297687830887]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>[616508.60110875 616940.86070089 605911.71999536 608031.42370485
- 602881.55289986]</t>
+          <t>[151456.84202511 214625.69011077]</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>[6783942.23162706 6790863.9919632  6847209.28263012 6867363.39299121
- 6924546.15569745]</t>
+          <t>[6658624.85424856 6631366.09946776]</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -8756,25 +9352,31 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>0.08835068105597489</v>
+        <v>0.02024065999123792</v>
       </c>
       <c r="R100" t="n">
-        <v>0.01761141973778919</v>
+        <v>0.003055193960941573</v>
       </c>
       <c r="S100" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
-        <v>5.708283469494746e-11</v>
+        <v>6.699459481073379e-11</v>
       </c>
       <c r="U100" t="n">
-        <v>-370.1364161984868</v>
+        <v>968.3278141002916</v>
+      </c>
+      <c r="V100" t="n">
+        <v>596138.1186047395</v>
+      </c>
+      <c r="W100" t="n">
+        <v>40979645.54658611</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2310_new</t>
+          <t>2323_new</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8788,13 +9390,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6379</v>
+        <v>6122</v>
       </c>
       <c r="E101" t="n">
-        <v>6381</v>
+        <v>6123</v>
       </c>
       <c r="F101" t="n">
-        <v>34205.70776683161</v>
+        <v>30147.6379395141</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -8810,22 +9412,22 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[59.4658143055557, 59.381485, 59.267986, 59.1740387892556]</t>
+          <t>[58.7045923795042, 58.623352, 58.4931612490429]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>[15.2309544461042, 15.13916, 15.136414, 15.1843659517243]</t>
+          <t>[16.0356310530249, 15.904083, 16.0960713264992]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>[513089.19182857 507906.44513391 507776.3107246  510538.73986975]</t>
+          <t>[560006.72796691 552506.77502229 563892.98531306]</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>[6591945.30087198 6582540.10902144 6569900.98883205 6559446.15789712]</t>
+          <t>[6507622.39653355 6498466.96916046 6484138.53268721]</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -8839,19 +9441,25 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>0.005827288165263555</v>
+        <v>0.005135954939834119</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0007106448982028726</v>
+        <v>0.0006263359682724536</v>
       </c>
       <c r="S101" t="n">
         <v>1500</v>
       </c>
       <c r="T101" t="n">
-        <v>8.77289558042876e-11</v>
+        <v>9.953784873466317e-11</v>
       </c>
       <c r="U101" t="n">
-        <v>-1245.77505573411</v>
+        <v>-297.6873246117634</v>
+      </c>
+      <c r="V101" t="n">
+        <v>755108.2835660035</v>
+      </c>
+      <c r="W101" t="n">
+        <v>22764731.13807582</v>
       </c>
     </row>
   </sheetData>
